--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Deca4 timesheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Deca4 timesheet " sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -431,7 +431,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B2" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -448,7 +448,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B3" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -465,7 +465,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B4" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -482,7 +482,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B5" t="str">
-        <v>27-06-2022</v>
+        <v>02.07.2022</v>
       </c>
       <c r="C5">
         <v>0.75</v>
@@ -499,7 +499,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B6" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -516,7 +516,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B7" t="str">
-        <v>27-06-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C7">
         <v>4.6</v>
@@ -533,7 +533,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B8" t="str">
-        <v>27-06-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C8">
         <v>1.55</v>
@@ -550,7 +550,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B9" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C9">
         <v>4.5</v>
@@ -567,7 +567,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B10" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C10">
         <v>1.2</v>
@@ -584,7 +584,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B11" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C11">
         <v>2.4</v>
@@ -601,7 +601,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B12" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C12">
         <v>1.4</v>
@@ -618,7 +618,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B13" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C13">
         <v>3.2</v>
@@ -635,7 +635,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B14" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C14">
         <v>2.1</v>
@@ -652,7 +652,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B15" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C15">
         <v>2.3</v>
@@ -669,7 +669,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B16" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C16">
         <v>1.3</v>
@@ -686,7 +686,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B17" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C17">
         <v>1.3</v>
@@ -703,7 +703,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B18" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B19" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B20" t="str">
-        <v>20-06-2022</v>
+        <v>25.06.2022</v>
       </c>
       <c r="C20">
         <v>1.3</v>
@@ -754,7 +754,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B21" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B22" t="str">
-        <v>20-06-2022</v>
+        <v>25.06.2022</v>
       </c>
       <c r="C22">
         <v>2.7</v>
@@ -788,7 +788,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B23" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C23">
         <v>7.3</v>
@@ -805,7 +805,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B24" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C24">
         <v>0.2</v>
@@ -822,7 +822,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B25" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -839,7 +839,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B26" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C26">
         <v>1.2</v>
@@ -856,7 +856,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B27" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C27">
         <v>0.4</v>
@@ -873,7 +873,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B28" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C28">
         <v>3.2</v>
@@ -890,7 +890,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B29" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C29">
         <v>1.3</v>
@@ -907,7 +907,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B30" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C30">
         <v>1.3</v>
@@ -924,7 +924,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B31" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -941,7 +941,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B32" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -958,7 +958,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B33" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -975,7 +975,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B34" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C34">
         <v>0.45</v>
@@ -992,7 +992,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B35" t="str">
-        <v>13-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C35">
         <v>4.9</v>
@@ -1009,7 +1009,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B36" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C36">
         <v>0.2</v>
@@ -1026,7 +1026,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B37" t="str">
-        <v>13-06-2022</v>
+        <v>18.06.2022</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B38" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C38">
         <v>2.3</v>
@@ -1060,7 +1060,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B39" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C39">
         <v>1.2</v>
@@ -1077,7 +1077,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B40" t="str">
-        <v>13-06-2022</v>
+        <v>19.06.2022</v>
       </c>
       <c r="C40">
         <v>6.5</v>
@@ -1094,7 +1094,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B41" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C41">
         <v>1.45</v>
@@ -1111,7 +1111,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B42" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C42">
         <v>1.45</v>
@@ -1128,7 +1128,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B43" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C43">
         <v>1.4</v>
@@ -1145,7 +1145,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B44" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B45" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C45">
         <v>2.3</v>
@@ -1179,7 +1179,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B46" t="str">
-        <v>13-06-2022</v>
+        <v>26.06.2022</v>
       </c>
       <c r="C46">
         <v>7.5</v>
@@ -1196,7 +1196,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B47" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C47">
         <v>1.3</v>
@@ -1213,7 +1213,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B48" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C48">
         <v>3.5</v>
@@ -1230,7 +1230,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B49" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B50" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C50">
         <v>1.2</v>
@@ -1264,7 +1264,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B51" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C51">
         <v>1.4</v>
@@ -1281,7 +1281,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B52" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C52">
         <v>2.2</v>
@@ -1298,7 +1298,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B53" t="str">
-        <v>06-06-2022</v>
+        <v>11.06.2022</v>
       </c>
       <c r="C53">
         <v>4.4</v>
@@ -1315,7 +1315,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B54" t="str">
-        <v>06-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C54">
         <v>5.9</v>
@@ -1332,7 +1332,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B55" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C55">
         <v>1.3</v>
@@ -1349,7 +1349,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B56" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C56">
         <v>2.3</v>
@@ -1366,7 +1366,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B57" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B58" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C58">
         <v>0.4</v>
@@ -1401,7 +1401,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B59" t="str">
-        <v>06-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C59">
         <v>2.2</v>
@@ -1418,7 +1418,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B60" t="str">
-        <v>06-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1435,7 +1435,7 @@
         <v>Kseniia Deina</v>
       </c>
       <c r="B61" t="str">
-        <v>06-06-2022</v>
+        <v>11.06.2022</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1452,7 +1452,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B62" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -1469,7 +1469,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B63" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C63">
         <v>0.5</v>
@@ -1487,7 +1487,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B64" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B65" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B66" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B67" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C67">
         <v>2.5</v>
@@ -1556,7 +1556,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B68" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1573,7 +1573,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B69" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C69">
         <v>0.5</v>
@@ -1590,7 +1590,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B70" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1607,7 +1607,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B71" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B72" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1642,7 +1642,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B73" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C73">
         <v>0.5</v>
@@ -1659,7 +1659,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B74" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B75" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B76" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B77" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1728,7 +1728,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B78" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B79" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1764,7 +1764,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B80" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1783,7 +1783,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B81" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B82" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C82">
         <v>1.5</v>
@@ -1817,7 +1817,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B83" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1834,7 +1834,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B84" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C84">
         <v>2.5</v>
@@ -1851,7 +1851,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B85" t="str">
-        <v>04-07-2022</v>
+        <v>09.07.2022</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B86" t="str">
-        <v>04-07-2022</v>
+        <v>09.07.2022</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1885,7 +1885,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B87" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -1902,7 +1902,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B88" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B89" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1937,7 +1937,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B90" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B91" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1971,7 +1971,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B92" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B93" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B94" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2022,7 +2022,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B95" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2039,7 +2039,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B96" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B97" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B98" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B99" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B100" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B101" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B102" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B103" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B104" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B105" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B106" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2230,7 +2230,7 @@
         <v>Oliver Andrés Silva Torres</v>
       </c>
       <c r="B107" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B108" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2265,7 +2265,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B109" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B110" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B111" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C111">
         <v>0.1</v>
@@ -2316,7 +2316,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B112" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B113" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B114" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2367,7 +2367,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B115" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C115">
         <v>0.5</v>
@@ -2384,7 +2384,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B116" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C116">
         <v>0.1</v>
@@ -2401,7 +2401,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B117" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2418,7 +2418,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B118" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -2435,7 +2435,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B119" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C119">
         <v>0.2</v>
@@ -2452,7 +2452,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B120" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B121" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B122" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -2503,7 +2503,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B123" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B124" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -2537,7 +2537,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B125" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2554,7 +2554,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B126" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2571,7 +2571,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B127" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B128" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -2605,7 +2605,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B129" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -2622,7 +2622,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B130" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -2639,7 +2639,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B131" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -2656,7 +2656,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B132" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B133" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C133">
         <v>8</v>
@@ -2690,7 +2690,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B134" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -2707,7 +2707,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B135" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -2724,7 +2724,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B136" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2741,7 +2741,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B137" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -2758,7 +2758,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B138" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -2775,7 +2775,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B139" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -2792,7 +2792,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B140" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -2809,7 +2809,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B141" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2826,7 +2826,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B142" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -2843,7 +2843,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B143" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -2860,7 +2860,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B144" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -2877,7 +2877,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B145" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -2895,7 +2895,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B146" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -2912,7 +2912,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B147" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B148" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -2946,7 +2946,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B149" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -2964,7 +2964,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B150" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B151" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2998,7 +2998,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B152" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B153" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -3032,7 +3032,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B154" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C154">
         <v>2.5</v>
@@ -3050,7 +3050,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B155" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C155">
         <v>2.5</v>
@@ -3067,7 +3067,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B156" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -3084,7 +3084,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B157" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -3101,7 +3101,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B158" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -3119,7 +3119,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B159" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -3136,7 +3136,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B160" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B161" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -3170,7 +3170,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B162" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -3188,7 +3188,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B163" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -3205,7 +3205,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B164" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3222,7 +3222,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B165" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -3239,7 +3239,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B166" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -3257,7 +3257,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B167" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3274,7 +3274,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B168" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -3291,7 +3291,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B169" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -3308,7 +3308,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B170" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -3326,7 +3326,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B171" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -3343,7 +3343,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B172" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -3360,7 +3360,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B173" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -3377,7 +3377,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B174" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C174">
         <v>2.5</v>
@@ -3395,7 +3395,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B175" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C175">
         <v>2.5</v>
@@ -3412,7 +3412,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B176" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B177" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -3446,7 +3446,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B178" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -3463,7 +3463,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B179" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C179">
         <v>2</v>
@@ -3481,7 +3481,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B180" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C180">
         <v>2</v>
@@ -3498,7 +3498,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B181" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B182" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C182">
         <v>0.83</v>
@@ -3532,7 +3532,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B183" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -3549,7 +3549,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B184" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B185" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C185">
         <v>2.5</v>
@@ -3583,7 +3583,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B186" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C186">
         <v>3</v>
@@ -3600,7 +3600,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B187" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B188" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B189" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B190" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -3668,7 +3668,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B191" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C191">
         <v>3</v>
@@ -3685,7 +3685,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B192" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C192">
         <v>0.5</v>
@@ -3702,7 +3702,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B193" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -3719,7 +3719,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B194" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -3736,7 +3736,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B195" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C195">
         <v>2.7</v>
@@ -3753,7 +3753,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B196" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B197" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C197">
         <v>8</v>
@@ -3787,7 +3787,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B198" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -3804,7 +3804,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B199" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -3821,7 +3821,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B200" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B201" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -3855,7 +3855,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B202" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -3872,7 +3872,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B203" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -3889,7 +3889,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B204" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -3906,7 +3906,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B205" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B206" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B207" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -3958,7 +3958,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B208" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -3975,7 +3975,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B209" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -3992,7 +3992,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B210" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -4009,7 +4009,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B211" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -4026,7 +4026,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B212" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -4043,7 +4043,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B213" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -4060,7 +4060,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B214" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -4078,7 +4078,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B215" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -4096,7 +4096,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B216" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>Slutskyi Dmytro</v>
       </c>
       <c r="B217" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B218" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C218">
         <v>0.5</v>
@@ -4147,7 +4147,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B219" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -4165,7 +4165,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B220" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B221" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4199,7 +4199,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B222" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -4217,7 +4217,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B223" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -4234,7 +4234,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B224" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -4251,7 +4251,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B225" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -4269,7 +4269,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B226" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C226">
         <v>2.5</v>
@@ -4286,7 +4286,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B227" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4303,7 +4303,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B228" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C228">
         <v>8</v>
@@ -4320,7 +4320,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B229" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C229">
         <v>0.5</v>
@@ -4337,7 +4337,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B230" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -4355,7 +4355,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B231" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -4372,7 +4372,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B232" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4389,7 +4389,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B233" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -4406,7 +4406,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B234" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -4423,7 +4423,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B235" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B236" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -4457,7 +4457,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B237" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -4474,7 +4474,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B238" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C238">
         <v>0.1</v>
@@ -4491,7 +4491,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B239" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C239">
         <v>2</v>
@@ -4509,7 +4509,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B240" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -4526,7 +4526,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B241" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C241">
         <v>2</v>
@@ -4543,7 +4543,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B242" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -4560,7 +4560,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B243" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -4577,7 +4577,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B244" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C244">
         <v>0.5</v>
@@ -4594,7 +4594,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B245" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C245">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B246" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C246">
         <v>2</v>
@@ -4629,7 +4629,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B247" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -4647,7 +4647,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B248" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B249" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C249">
         <v>0.1</v>
@@ -4681,7 +4681,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B250" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -4698,7 +4698,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B251" t="str">
-        <v>06-06-2022</v>
+        <v>11.06.2022</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -4715,7 +4715,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B252" t="str">
-        <v>06-06-2022</v>
+        <v>11.06.2022</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -4732,7 +4732,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B253" t="str">
-        <v>06-06-2022</v>
+        <v>11.06.2022</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -4749,7 +4749,7 @@
         <v>Deina Zakhar</v>
       </c>
       <c r="B254" t="str">
-        <v>06-06-2022</v>
+        <v>11.06.2022</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B255" t="str">
-        <v>27-06-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C255">
         <v>6</v>
@@ -4783,7 +4783,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B256" t="str">
-        <v>27-06-2022</v>
+        <v>10.07.2022</v>
       </c>
       <c r="C256">
         <v>6</v>
@@ -4800,7 +4800,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B257" t="str">
-        <v>20-06-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -4817,7 +4817,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B258" t="str">
-        <v>20-06-2022</v>
+        <v>25.06.2022</v>
       </c>
       <c r="C258">
         <v>3</v>
@@ -4834,7 +4834,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B259" t="str">
-        <v>20-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -4851,7 +4851,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B260" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C260">
         <v>0.666</v>
@@ -4868,7 +4868,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B261" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C261">
         <v>0.7</v>
@@ -4885,7 +4885,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B262" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C262">
         <v>1.166677</v>
@@ -4902,7 +4902,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B263" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C263">
         <v>0.2</v>
@@ -4919,7 +4919,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B264" t="str">
-        <v>04-07-2022</v>
+        <v>04.07.2022</v>
       </c>
       <c r="C264">
         <v>6</v>
@@ -4936,7 +4936,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B265" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B266" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C266">
         <v>0.5</v>
@@ -4970,7 +4970,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B267" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C267">
         <v>2.1667</v>
@@ -4987,7 +4987,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B268" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C268">
         <v>0.25</v>
@@ -5004,7 +5004,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B269" t="str">
-        <v>04-07-2022</v>
+        <v>05.07.2022</v>
       </c>
       <c r="C269">
         <v>0.5</v>
@@ -5021,7 +5021,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B270" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -5038,7 +5038,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B271" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C271">
         <v>0.5</v>
@@ -5055,7 +5055,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B272" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C272">
         <v>0.75</v>
@@ -5072,7 +5072,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B273" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C273">
         <v>0.8333</v>
@@ -5089,7 +5089,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B274" t="str">
-        <v>04-07-2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -5106,7 +5106,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B275" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C275">
         <v>2.5</v>
@@ -5123,7 +5123,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B276" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -5140,7 +5140,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B277" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B278" t="str">
-        <v>04-07-2022</v>
+        <v>07.07.2022</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -5174,7 +5174,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B279" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C279">
         <v>8</v>
@@ -5191,7 +5191,7 @@
         <v>Roua Dib</v>
       </c>
       <c r="B280" t="str">
-        <v>04-07-2022</v>
+        <v>08.07.2022</v>
       </c>
       <c r="C280">
         <v>1.5</v>
@@ -5208,7 +5208,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B281" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C281">
         <v>0.95</v>
@@ -5225,7 +5225,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B282" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C282">
         <v>0.35</v>
@@ -5242,7 +5242,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B283" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C283">
         <v>0.75</v>
@@ -5259,7 +5259,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B284" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C284">
         <v>0.8</v>
@@ -5276,7 +5276,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B285" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C285">
         <v>3</v>
@@ -5293,7 +5293,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B286" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C286">
         <v>2</v>
@@ -5310,7 +5310,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B287" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -5327,7 +5327,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B288" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C288">
         <v>0.15</v>
@@ -5344,7 +5344,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B289" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C289">
         <v>1.5</v>
@@ -5361,7 +5361,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B290" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B291" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -5395,7 +5395,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B292" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B293" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C293">
         <v>0.5</v>
@@ -5429,7 +5429,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B294" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B295" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C295">
         <v>0.1</v>
@@ -5463,7 +5463,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B296" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C296">
         <v>2.5</v>
@@ -5480,7 +5480,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B297" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C297">
         <v>0.4</v>
@@ -5497,7 +5497,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B298" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C298">
         <v>0.15</v>
@@ -5514,7 +5514,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B299" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C299">
         <v>0.2</v>
@@ -5531,7 +5531,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B300" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C300">
         <v>1.5</v>
@@ -5548,7 +5548,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B301" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -5565,7 +5565,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B302" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C302">
         <v>1.5</v>
@@ -5582,7 +5582,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B303" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C303">
         <v>0.8</v>
@@ -5599,7 +5599,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B304" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C304">
         <v>1.5</v>
@@ -5616,7 +5616,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B305" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C305">
         <v>8</v>
@@ -5633,7 +5633,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B306" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C306">
         <v>8</v>
@@ -5650,7 +5650,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B307" t="str">
-        <v>20-06-2022</v>
+        <v>25.06.2022</v>
       </c>
       <c r="C307">
         <v>0.8</v>
@@ -5667,7 +5667,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B308" t="str">
-        <v>20-06-2022</v>
+        <v>25.06.2022</v>
       </c>
       <c r="C308">
         <v>1.75</v>
@@ -5684,7 +5684,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B309" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C309">
         <v>2.3</v>
@@ -5701,7 +5701,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B310" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C310">
         <v>1.3</v>
@@ -5718,7 +5718,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B311" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C311">
         <v>1.3</v>
@@ -5735,7 +5735,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B312" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C312">
         <v>2.3</v>
@@ -5752,7 +5752,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B313" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C313">
         <v>2</v>
@@ -5770,7 +5770,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B314" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -5787,7 +5787,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B315" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C315">
         <v>2.3</v>
@@ -5804,7 +5804,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B316" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -5821,7 +5821,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B317" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C317">
         <v>1.3</v>
@@ -5838,7 +5838,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B318" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -5855,7 +5855,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B319" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C319">
         <v>2</v>
@@ -5872,7 +5872,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B320" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C320">
         <v>2</v>
@@ -5889,7 +5889,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B321" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C321">
         <v>2</v>
@@ -5906,7 +5906,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B322" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C322">
         <v>2</v>
@@ -5923,7 +5923,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B323" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C323">
         <v>3</v>
@@ -5940,7 +5940,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B324" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C324">
         <v>3</v>
@@ -5957,7 +5957,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B325" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -5974,7 +5974,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B326" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -5991,7 +5991,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B327" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -6008,7 +6008,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B328" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -6025,7 +6025,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B329" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B330" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -6059,7 +6059,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B331" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -6076,7 +6076,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B332" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C332">
         <v>0.3</v>
@@ -6093,7 +6093,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B333" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C333">
         <v>0.3</v>
@@ -6110,7 +6110,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B334" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B335" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -6144,7 +6144,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B336" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C336">
         <v>1.3</v>
@@ -6161,7 +6161,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B337" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -6178,7 +6178,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B338" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C338">
         <v>2</v>
@@ -6195,7 +6195,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B339" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -6212,7 +6212,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B340" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C340">
         <v>1.3</v>
@@ -6229,7 +6229,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B341" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C341">
         <v>3</v>
@@ -6246,7 +6246,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B342" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C342">
         <v>2</v>
@@ -6263,7 +6263,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B343" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C343">
         <v>1.3</v>
@@ -6280,7 +6280,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B344" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -6297,7 +6297,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B345" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C345">
         <v>3</v>
@@ -6314,7 +6314,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B346" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -6331,7 +6331,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B347" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -6348,7 +6348,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B348" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C348">
         <v>3</v>
@@ -6365,7 +6365,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B349" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C349">
         <v>0.75</v>
@@ -6382,7 +6382,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B350" t="str">
-        <v>20-06-2022</v>
+        <v>25.06.2022</v>
       </c>
       <c r="C350">
         <v>1.3</v>
@@ -6399,7 +6399,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B351" t="str">
-        <v>20-06-2022</v>
+        <v>26.06.2022</v>
       </c>
       <c r="C351">
         <v>1.3</v>
@@ -6416,7 +6416,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B352" t="str">
-        <v>27-06-2022</v>
+        <v>11.07.2022</v>
       </c>
       <c r="C352">
         <v>40</v>
@@ -6433,7 +6433,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B353" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C353">
         <v>2</v>
@@ -6450,7 +6450,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B354" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C354">
         <v>0.6</v>
@@ -6467,7 +6467,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B355" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C355">
         <v>0.25</v>
@@ -6484,7 +6484,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B356" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C356">
         <v>0.5</v>
@@ -6501,7 +6501,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B357" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C357">
         <v>0.35</v>
@@ -6518,7 +6518,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B358" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C358">
         <v>0.8</v>
@@ -6535,7 +6535,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B359" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C359">
         <v>2.2</v>
@@ -6552,7 +6552,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B360" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C360">
         <v>0.45</v>
@@ -6569,7 +6569,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B361" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C361">
         <v>0.8</v>
@@ -6586,7 +6586,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B362" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C362">
         <v>0.6</v>
@@ -6603,7 +6603,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B363" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C363">
         <v>0.8</v>
@@ -6620,7 +6620,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B364" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -6637,7 +6637,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B365" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C365">
         <v>0.35</v>
@@ -6654,7 +6654,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B366" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C366">
         <v>0.5</v>
@@ -6671,7 +6671,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B367" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C367">
         <v>0.45</v>
@@ -6688,7 +6688,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B368" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C368">
         <v>0.5</v>
@@ -6705,7 +6705,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B369" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C369">
         <v>0.75</v>
@@ -6722,7 +6722,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B370" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C370">
         <v>0.5</v>
@@ -6739,7 +6739,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B371" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C371">
         <v>0.35</v>
@@ -6756,7 +6756,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B372" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B373" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B374" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -6807,7 +6807,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B375" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C375">
         <v>1.8</v>
@@ -6824,7 +6824,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B376" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C376">
         <v>0.33</v>
@@ -6841,7 +6841,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B377" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C377">
         <v>0.9</v>
@@ -6858,7 +6858,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B378" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C378">
         <v>0.3</v>
@@ -6875,7 +6875,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B379" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C379">
         <v>2.75</v>
@@ -6892,7 +6892,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B380" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C380">
         <v>0.15</v>
@@ -6909,7 +6909,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B381" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C381">
         <v>1.5</v>
@@ -6926,7 +6926,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B382" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C382">
         <v>0.25</v>
@@ -6943,7 +6943,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B383" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C383">
         <v>0.5</v>
@@ -6960,7 +6960,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B384" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C384">
         <v>0.5</v>
@@ -6977,7 +6977,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B385" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -6994,7 +6994,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B386" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C386">
         <v>0.25</v>
@@ -7011,7 +7011,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B387" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C387">
         <v>1.6</v>
@@ -7028,7 +7028,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B388" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C388">
         <v>0.4</v>
@@ -7045,7 +7045,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B389" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C389">
         <v>0.9</v>
@@ -7062,7 +7062,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B390" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C390">
         <v>0.5</v>
@@ -7079,7 +7079,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B391" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C391">
         <v>0.75</v>
@@ -7096,7 +7096,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B392" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C392">
         <v>0.45</v>
@@ -7113,7 +7113,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B393" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C393">
         <v>0.5</v>
@@ -7130,7 +7130,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B394" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C394">
         <v>0.85</v>
@@ -7147,7 +7147,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B395" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -7164,7 +7164,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B396" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -7181,7 +7181,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B397" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C397">
         <v>2</v>
@@ -7198,7 +7198,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B398" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -7215,7 +7215,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B399" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C399">
         <v>0.33</v>
@@ -7232,7 +7232,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B400" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C400">
         <v>2.15</v>
@@ -7249,7 +7249,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B401" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C401">
         <v>0.8</v>
@@ -7266,7 +7266,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B402" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C402">
         <v>0.5</v>
@@ -7283,7 +7283,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B403" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C403">
         <v>0.5</v>
@@ -7300,7 +7300,7 @@
         <v>Eduards Valters Taurens</v>
       </c>
       <c r="B404" t="str">
-        <v>06-06-2022</v>
+        <v>11.06.2022</v>
       </c>
       <c r="C404">
         <v>0.5</v>
@@ -7317,7 +7317,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B405" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C405">
         <v>0.5</v>
@@ -7334,7 +7334,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B406" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -7351,7 +7351,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B407" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C407">
         <v>1.25</v>
@@ -7368,7 +7368,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B408" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C408">
         <v>2.5</v>
@@ -7385,7 +7385,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B409" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -7402,7 +7402,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B410" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -7419,7 +7419,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B411" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C411">
         <v>1.5</v>
@@ -7436,7 +7436,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B412" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -7453,7 +7453,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B413" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C413">
         <v>1.75</v>
@@ -7470,7 +7470,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B414" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C414">
         <v>1.25</v>
@@ -7487,7 +7487,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B415" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C415">
         <v>2</v>
@@ -7504,7 +7504,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B416" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -7521,7 +7521,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B417" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C417">
         <v>0.75</v>
@@ -7538,7 +7538,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B418" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -7555,7 +7555,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B419" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C419">
         <v>1.25</v>
@@ -7572,7 +7572,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B420" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C420">
         <v>0.75</v>
@@ -7589,7 +7589,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B421" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -7606,7 +7606,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B422" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C422">
         <v>1.75</v>
@@ -7623,7 +7623,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B423" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C423">
         <v>1.75</v>
@@ -7641,7 +7641,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B424" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C424">
         <v>1.75</v>
@@ -7658,7 +7658,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B425" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C425">
         <v>1.25</v>
@@ -7675,7 +7675,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B426" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C426">
         <v>1.25</v>
@@ -7692,7 +7692,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B427" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -7709,7 +7709,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B428" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -7726,7 +7726,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B429" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -7743,7 +7743,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B430" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B431" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C431">
         <v>0.75</v>
@@ -7777,7 +7777,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B432" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C432">
         <v>3</v>
@@ -7794,7 +7794,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B433" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C433">
         <v>3</v>
@@ -7811,7 +7811,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B434" t="str">
-        <v>27-06-2022</v>
+        <v>27.06.2022</v>
       </c>
       <c r="C434">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B435" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C435">
         <v>3</v>
@@ -7845,7 +7845,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B436" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C436">
         <v>3</v>
@@ -7862,7 +7862,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B437" t="str">
-        <v>27-06-2022</v>
+        <v>28.06.2022</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -7879,7 +7879,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B438" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C438">
         <v>3</v>
@@ -7896,7 +7896,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B439" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C439">
         <v>3</v>
@@ -7913,7 +7913,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B440" t="str">
-        <v>27-06-2022</v>
+        <v>29.06.2022</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -7930,7 +7930,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B441" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C441">
         <v>3</v>
@@ -7947,7 +7947,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B442" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -7964,7 +7964,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B443" t="str">
-        <v>27-06-2022</v>
+        <v>30.06.2022</v>
       </c>
       <c r="C443">
         <v>3</v>
@@ -7981,7 +7981,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B444" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C444">
         <v>3</v>
@@ -7998,7 +7998,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B445" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C445">
         <v>2.33</v>
@@ -8015,7 +8015,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B446" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C446">
         <v>0.67</v>
@@ -8032,7 +8032,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B447" t="str">
-        <v>27-06-2022</v>
+        <v>01.07.2022</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -8049,7 +8049,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B448" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C448">
         <v>0.17</v>
@@ -8066,7 +8066,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B449" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C449">
         <v>3</v>
@@ -8083,7 +8083,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B450" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C450">
         <v>3</v>
@@ -8100,7 +8100,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B451" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C451">
         <v>0.95</v>
@@ -8117,7 +8117,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B452" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C452">
         <v>0.33</v>
@@ -8134,7 +8134,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B453" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C453">
         <v>3</v>
@@ -8151,7 +8151,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B454" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C454">
         <v>3</v>
@@ -8168,7 +8168,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B455" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C455">
         <v>0.9</v>
@@ -8185,7 +8185,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B456" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C456">
         <v>3</v>
@@ -8202,7 +8202,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B457" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C457">
         <v>3</v>
@@ -8219,7 +8219,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B458" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -8236,7 +8236,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B459" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C459">
         <v>2</v>
@@ -8253,7 +8253,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B460" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C460">
         <v>2.5</v>
@@ -8270,7 +8270,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B461" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C461">
         <v>3</v>
@@ -8287,7 +8287,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B462" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C462">
         <v>2</v>
@@ -8304,7 +8304,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B463" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C463">
         <v>3</v>
@@ -8321,7 +8321,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B464" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C464">
         <v>0.7</v>
@@ -8338,7 +8338,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B465" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -8355,7 +8355,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B466" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C466">
         <v>0.5</v>
@@ -8372,7 +8372,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B467" t="str">
-        <v>13-06-2022</v>
+        <v>09.07.2022</v>
       </c>
       <c r="C467">
         <v>10</v>
@@ -8389,7 +8389,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B468" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C468">
         <v>3</v>
@@ -8406,7 +8406,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B469" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C469">
         <v>3</v>
@@ -8423,7 +8423,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B470" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C470">
         <v>0.5</v>
@@ -8440,7 +8440,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B471" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C471">
         <v>0.5</v>
@@ -8457,7 +8457,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B472" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C472">
         <v>1.25</v>
@@ -8474,7 +8474,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B473" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C473">
         <v>2.5</v>
@@ -8491,7 +8491,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B474" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C474">
         <v>1.5</v>
@@ -8508,7 +8508,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B475" t="str">
-        <v>20-06-2022</v>
+        <v>20.06.2022</v>
       </c>
       <c r="C475">
         <v>1.25</v>
@@ -8525,7 +8525,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B476" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C476">
         <v>1.25</v>
@@ -8542,7 +8542,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B477" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C477">
         <v>1.25</v>
@@ -8559,7 +8559,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B478" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -8576,7 +8576,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B479" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C479">
         <v>2</v>
@@ -8593,7 +8593,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B480" t="str">
-        <v>20-06-2022</v>
+        <v>21.06.2022</v>
       </c>
       <c r="C480">
         <v>1.75</v>
@@ -8610,7 +8610,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B481" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C481">
         <v>1.5</v>
@@ -8627,7 +8627,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B482" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C482">
         <v>1.5</v>
@@ -8644,7 +8644,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B483" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C483">
         <v>1.25</v>
@@ -8661,7 +8661,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B484" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C484">
         <v>1.25</v>
@@ -8678,7 +8678,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B485" t="str">
-        <v>20-06-2022</v>
+        <v>22.06.2022</v>
       </c>
       <c r="C485">
         <v>2</v>
@@ -8695,7 +8695,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B486" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C486">
         <v>1.25</v>
@@ -8712,7 +8712,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B487" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C487">
         <v>1.25</v>
@@ -8729,7 +8729,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B488" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -8746,7 +8746,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B489" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C489">
         <v>1.5</v>
@@ -8763,7 +8763,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B490" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C490">
         <v>0.75</v>
@@ -8780,7 +8780,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B491" t="str">
-        <v>20-06-2022</v>
+        <v>23.06.2022</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B492" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C492">
         <v>1.25</v>
@@ -8814,7 +8814,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B493" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C493">
         <v>1.25</v>
@@ -8831,7 +8831,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B494" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C494">
         <v>1.5</v>
@@ -8848,7 +8848,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B495" t="str">
-        <v>20-06-2022</v>
+        <v>24.06.2022</v>
       </c>
       <c r="C495">
         <v>2.25</v>
@@ -8865,7 +8865,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B496" t="str">
-        <v>06-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C496">
         <v>10</v>
@@ -8882,7 +8882,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B497" t="str">
-        <v>06-06-2022</v>
+        <v>19.06.2022</v>
       </c>
       <c r="C497">
         <v>7</v>
@@ -8899,7 +8899,7 @@
         <v>Margaryta Ievdokymova</v>
       </c>
       <c r="B498" t="str">
-        <v>06-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C498">
         <v>4</v>
@@ -8916,7 +8916,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B499" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C499">
         <v>0.5</v>
@@ -8933,7 +8933,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B500" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C500">
         <v>1.25</v>
@@ -8950,7 +8950,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B501" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C501">
         <v>2</v>
@@ -8967,7 +8967,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B502" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C502">
         <v>1.25</v>
@@ -8984,7 +8984,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B503" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C503">
         <v>1.5</v>
@@ -9001,7 +9001,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B504" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C504">
         <v>1.5</v>
@@ -9018,7 +9018,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B505" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C505">
         <v>2</v>
@@ -9035,7 +9035,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B506" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C506">
         <v>2.5</v>
@@ -9052,7 +9052,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B507" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C507">
         <v>1.25</v>
@@ -9069,7 +9069,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B508" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C508">
         <v>1.5</v>
@@ -9086,7 +9086,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B509" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C509">
         <v>2.5</v>
@@ -9103,7 +9103,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B510" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C510">
         <v>1.5</v>
@@ -9120,7 +9120,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B511" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C511">
         <v>1.5</v>
@@ -9137,7 +9137,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B512" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C512">
         <v>2</v>
@@ -9154,7 +9154,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B513" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C513">
         <v>2.5</v>
@@ -9171,7 +9171,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B514" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -9188,7 +9188,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B515" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -9205,7 +9205,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B516" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C516">
         <v>2.5</v>
@@ -9222,7 +9222,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B517" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -9239,7 +9239,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B518" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C518">
         <v>1.75</v>
@@ -9256,7 +9256,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B519" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C519">
         <v>3</v>
@@ -9273,7 +9273,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B520" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C520">
         <v>3</v>
@@ -9290,7 +9290,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B521" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C521">
         <v>0.83</v>
@@ -9307,7 +9307,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B522" t="str">
-        <v>13-06-2022</v>
+        <v>13.06.2022</v>
       </c>
       <c r="C522">
         <v>1.17</v>
@@ -9324,7 +9324,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B523" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C523">
         <v>0.5</v>
@@ -9341,7 +9341,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B524" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C524">
         <v>3</v>
@@ -9358,7 +9358,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B525" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C525">
         <v>2</v>
@@ -9375,7 +9375,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B526" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -9392,7 +9392,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B527" t="str">
-        <v>13-06-2022</v>
+        <v>14.06.2022</v>
       </c>
       <c r="C527">
         <v>0.75</v>
@@ -9409,7 +9409,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B528" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C528">
         <v>3</v>
@@ -9426,7 +9426,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B529" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -9443,7 +9443,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B530" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C530">
         <v>2.5</v>
@@ -9460,7 +9460,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B531" t="str">
-        <v>13-06-2022</v>
+        <v>15.06.2022</v>
       </c>
       <c r="C531">
         <v>0.85</v>
@@ -9477,7 +9477,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B532" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C532">
         <v>2.5</v>
@@ -9494,7 +9494,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B533" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C533">
         <v>3</v>
@@ -9511,7 +9511,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B534" t="str">
-        <v>13-06-2022</v>
+        <v>16.06.2022</v>
       </c>
       <c r="C534">
         <v>2</v>
@@ -9528,7 +9528,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B535" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C535">
         <v>3</v>
@@ -9545,7 +9545,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B536" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C536">
         <v>0.67</v>
@@ -9562,7 +9562,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B537" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C537">
         <v>2.5</v>
@@ -9579,7 +9579,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B538" t="str">
-        <v>13-06-2022</v>
+        <v>17.06.2022</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -9596,7 +9596,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B539" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -9613,7 +9613,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B540" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C540">
         <v>3</v>
@@ -9630,7 +9630,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B541" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C541">
         <v>3</v>
@@ -9647,7 +9647,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B542" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C542">
         <v>1.5</v>
@@ -9664,7 +9664,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B543" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C543">
         <v>0.33</v>
@@ -9681,7 +9681,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B544" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -9698,7 +9698,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B545" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C545">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B546" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C546">
         <v>2</v>
@@ -9732,7 +9732,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B547" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C547">
         <v>1.5</v>
@@ -9749,7 +9749,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B548" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C548">
         <v>3</v>
@@ -9766,7 +9766,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B549" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C549">
         <v>1.5</v>
@@ -9783,7 +9783,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B550" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -9800,7 +9800,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B551" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C551">
         <v>1.25</v>
@@ -9817,7 +9817,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B552" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C552">
         <v>2.5</v>
@@ -9834,7 +9834,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B553" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C553">
         <v>1</v>
@@ -9851,7 +9851,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B554" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C554">
         <v>2.5</v>
@@ -9868,7 +9868,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B555" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C555">
         <v>1</v>
@@ -9885,7 +9885,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B556" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C556">
         <v>3</v>
@@ -9902,7 +9902,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B557" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C557">
         <v>0.83</v>
@@ -9919,7 +9919,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B558" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C558">
         <v>2</v>
@@ -9936,7 +9936,7 @@
         <v>Abdelrahman Kassem</v>
       </c>
       <c r="B559" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C559">
         <v>0.5</v>
@@ -9953,7 +9953,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B560" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C560">
         <v>0.75</v>
@@ -9970,7 +9970,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B561" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C561">
         <v>1.5</v>
@@ -9987,7 +9987,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B562" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -10004,7 +10004,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B563" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C563">
         <v>1.75</v>
@@ -10021,7 +10021,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B564" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C564">
         <v>2.25</v>
@@ -10038,7 +10038,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B565" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C565">
         <v>1.25</v>
@@ -10055,7 +10055,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B566" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C566">
         <v>1.25</v>
@@ -10072,7 +10072,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B567" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C567">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B568" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C568">
         <v>1.5</v>
@@ -10106,7 +10106,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B569" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C569">
         <v>2</v>
@@ -10123,7 +10123,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B570" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C570">
         <v>2</v>
@@ -10140,7 +10140,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B571" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C571">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B572" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C572">
         <v>2.25</v>
@@ -10174,7 +10174,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B573" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C573">
         <v>1.5</v>
@@ -10191,7 +10191,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B574" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C574">
         <v>1.5</v>
@@ -10208,7 +10208,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B575" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C575">
         <v>1.5</v>
@@ -10225,7 +10225,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B576" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C576">
         <v>1.25</v>
@@ -10242,7 +10242,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B577" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C577">
         <v>1.5</v>
@@ -10259,7 +10259,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B578" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C578">
         <v>2</v>
@@ -10276,7 +10276,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B579" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B580" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -10310,7 +10310,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B581" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -10327,7 +10327,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B582" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B583" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C583">
         <v>0.75</v>
@@ -10361,7 +10361,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B584" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -10378,7 +10378,7 @@
         <v>Usamah Muhammed Aqeel</v>
       </c>
       <c r="B585" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C585">
         <v>1.75</v>
@@ -10395,7 +10395,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B586" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C586">
         <v>2</v>
@@ -10412,7 +10412,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B587" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C587">
         <v>0.75</v>
@@ -10429,7 +10429,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B588" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -10446,7 +10446,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B589" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -10463,7 +10463,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B590" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C590">
         <v>0.3</v>
@@ -10480,7 +10480,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B591" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C591">
         <v>0.35</v>
@@ -10497,7 +10497,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B592" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C592">
         <v>0.11</v>
@@ -10514,7 +10514,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B593" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C593">
         <v>0.1</v>
@@ -10531,7 +10531,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B594" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C594">
         <v>1</v>
@@ -10548,7 +10548,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B595" t="str">
-        <v>06-06-2022</v>
+        <v>06.06.2022</v>
       </c>
       <c r="C595">
         <v>1.31</v>
@@ -10565,7 +10565,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B596" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C596">
         <v>1.75</v>
@@ -10582,7 +10582,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B597" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C597">
         <v>0.75</v>
@@ -10599,7 +10599,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B598" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C598">
         <v>0.7</v>
@@ -10616,7 +10616,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B599" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C599">
         <v>0.75</v>
@@ -10633,7 +10633,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B600" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C600">
         <v>0.7</v>
@@ -10650,7 +10650,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B601" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C601">
         <v>0.7</v>
@@ -10667,7 +10667,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B602" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C602">
         <v>1</v>
@@ -10684,7 +10684,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B603" t="str">
-        <v>06-06-2022</v>
+        <v>07.06.2022</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B604" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C604">
         <v>3</v>
@@ -10718,7 +10718,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B605" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C605">
         <v>3</v>
@@ -10735,7 +10735,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B606" t="str">
-        <v>06-06-2022</v>
+        <v>08.06.2022</v>
       </c>
       <c r="C606">
         <v>2</v>
@@ -10752,7 +10752,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B607" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C607">
         <v>3</v>
@@ -10769,7 +10769,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B608" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C608">
         <v>3</v>
@@ -10786,7 +10786,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B609" t="str">
-        <v>06-06-2022</v>
+        <v>09.06.2022</v>
       </c>
       <c r="C609">
         <v>2</v>
@@ -10803,7 +10803,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B610" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C610">
         <v>2</v>
@@ -10820,7 +10820,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B611" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C611">
         <v>2</v>
@@ -10837,7 +10837,7 @@
         <v>Zishan Vaseem</v>
       </c>
       <c r="B612" t="str">
-        <v>06-06-2022</v>
+        <v>10.06.2022</v>
       </c>
       <c r="C612">
         <v>2</v>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -68,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +431,8 @@
       <c r="A2" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B2" t="str">
-        <v>27.06.2022</v>
+      <c r="B2" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -447,8 +448,8 @@
       <c r="A3" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B3" t="str">
-        <v>27.06.2022</v>
+      <c r="B3" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -464,8 +465,8 @@
       <c r="A4" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B4" t="str">
-        <v>27.06.2022</v>
+      <c r="B4" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C4">
         <v>1.2</v>
@@ -481,8 +482,8 @@
       <c r="A5" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B5" t="str">
-        <v>02.07.2022</v>
+      <c r="B5" s="1">
+        <v>44745.0000462963</v>
       </c>
       <c r="C5">
         <v>0.75</v>
@@ -498,8 +499,8 @@
       <c r="A6" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B6" t="str">
-        <v>28.06.2022</v>
+      <c r="B6" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -515,8 +516,8 @@
       <c r="A7" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B7" t="str">
-        <v>04.07.2022</v>
+      <c r="B7" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C7">
         <v>4.6</v>
@@ -532,8 +533,8 @@
       <c r="A8" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B8" t="str">
-        <v>04.07.2022</v>
+      <c r="B8" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C8">
         <v>1.55</v>
@@ -549,8 +550,8 @@
       <c r="A9" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B9" t="str">
-        <v>29.06.2022</v>
+      <c r="B9" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C9">
         <v>4.5</v>
@@ -566,8 +567,8 @@
       <c r="A10" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B10" t="str">
-        <v>01.07.2022</v>
+      <c r="B10" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C10">
         <v>1.2</v>
@@ -583,8 +584,8 @@
       <c r="A11" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B11" t="str">
-        <v>01.07.2022</v>
+      <c r="B11" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C11">
         <v>2.4</v>
@@ -600,8 +601,8 @@
       <c r="A12" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B12" t="str">
-        <v>30.06.2022</v>
+      <c r="B12" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C12">
         <v>1.4</v>
@@ -617,8 +618,8 @@
       <c r="A13" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B13" t="str">
-        <v>30.06.2022</v>
+      <c r="B13" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C13">
         <v>3.2</v>
@@ -634,8 +635,8 @@
       <c r="A14" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B14" t="str">
-        <v>30.06.2022</v>
+      <c r="B14" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C14">
         <v>2.1</v>
@@ -651,8 +652,8 @@
       <c r="A15" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B15" t="str">
-        <v>20.06.2022</v>
+      <c r="B15" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C15">
         <v>2.3</v>
@@ -668,8 +669,8 @@
       <c r="A16" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B16" t="str">
-        <v>20.06.2022</v>
+      <c r="B16" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C16">
         <v>1.3</v>
@@ -685,8 +686,8 @@
       <c r="A17" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B17" t="str">
-        <v>20.06.2022</v>
+      <c r="B17" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C17">
         <v>1.3</v>
@@ -702,8 +703,8 @@
       <c r="A18" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B18" t="str">
-        <v>20.06.2022</v>
+      <c r="B18" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -719,8 +720,8 @@
       <c r="A19" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B19" t="str">
-        <v>20.06.2022</v>
+      <c r="B19" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -736,8 +737,8 @@
       <c r="A20" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B20" t="str">
-        <v>25.06.2022</v>
+      <c r="B20" s="1">
+        <v>44738.0000462963</v>
       </c>
       <c r="C20">
         <v>1.3</v>
@@ -753,8 +754,8 @@
       <c r="A21" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B21" t="str">
-        <v>20.06.2022</v>
+      <c r="B21" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -770,8 +771,8 @@
       <c r="A22" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B22" t="str">
-        <v>25.06.2022</v>
+      <c r="B22" s="1">
+        <v>44738.0000462963</v>
       </c>
       <c r="C22">
         <v>2.7</v>
@@ -787,8 +788,8 @@
       <c r="A23" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B23" t="str">
-        <v>21.06.2022</v>
+      <c r="B23" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C23">
         <v>7.3</v>
@@ -804,8 +805,8 @@
       <c r="A24" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B24" t="str">
-        <v>21.06.2022</v>
+      <c r="B24" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C24">
         <v>0.2</v>
@@ -821,8 +822,8 @@
       <c r="A25" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B25" t="str">
-        <v>22.06.2022</v>
+      <c r="B25" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -838,8 +839,8 @@
       <c r="A26" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B26" t="str">
-        <v>22.06.2022</v>
+      <c r="B26" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C26">
         <v>1.2</v>
@@ -855,8 +856,8 @@
       <c r="A27" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B27" t="str">
-        <v>22.06.2022</v>
+      <c r="B27" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C27">
         <v>0.4</v>
@@ -872,8 +873,8 @@
       <c r="A28" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B28" t="str">
-        <v>23.06.2022</v>
+      <c r="B28" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C28">
         <v>3.2</v>
@@ -889,8 +890,8 @@
       <c r="A29" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B29" t="str">
-        <v>23.06.2022</v>
+      <c r="B29" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C29">
         <v>1.3</v>
@@ -906,8 +907,8 @@
       <c r="A30" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B30" t="str">
-        <v>24.06.2022</v>
+      <c r="B30" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C30">
         <v>1.3</v>
@@ -923,8 +924,8 @@
       <c r="A31" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B31" t="str">
-        <v>24.06.2022</v>
+      <c r="B31" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -940,8 +941,8 @@
       <c r="A32" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B32" t="str">
-        <v>13.06.2022</v>
+      <c r="B32" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -957,8 +958,8 @@
       <c r="A33" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B33" t="str">
-        <v>13.06.2022</v>
+      <c r="B33" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -974,8 +975,8 @@
       <c r="A34" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B34" t="str">
-        <v>13.06.2022</v>
+      <c r="B34" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C34">
         <v>0.45</v>
@@ -991,8 +992,8 @@
       <c r="A35" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B35" t="str">
-        <v>22.06.2022</v>
+      <c r="B35" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C35">
         <v>4.9</v>
@@ -1008,8 +1009,8 @@
       <c r="A36" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B36" t="str">
-        <v>13.06.2022</v>
+      <c r="B36" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C36">
         <v>0.2</v>
@@ -1025,8 +1026,8 @@
       <c r="A37" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B37" t="str">
-        <v>18.06.2022</v>
+      <c r="B37" s="1">
+        <v>44731.0000462963</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1042,8 +1043,8 @@
       <c r="A38" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B38" t="str">
-        <v>14.06.2022</v>
+      <c r="B38" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C38">
         <v>2.3</v>
@@ -1059,8 +1060,8 @@
       <c r="A39" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B39" t="str">
-        <v>14.06.2022</v>
+      <c r="B39" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C39">
         <v>1.2</v>
@@ -1076,8 +1077,8 @@
       <c r="A40" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B40" t="str">
-        <v>19.06.2022</v>
+      <c r="B40" s="1">
+        <v>44732.0000462963</v>
       </c>
       <c r="C40">
         <v>6.5</v>
@@ -1093,8 +1094,8 @@
       <c r="A41" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B41" t="str">
-        <v>15.06.2022</v>
+      <c r="B41" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C41">
         <v>1.45</v>
@@ -1110,8 +1111,8 @@
       <c r="A42" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B42" t="str">
-        <v>16.06.2022</v>
+      <c r="B42" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C42">
         <v>1.45</v>
@@ -1127,8 +1128,8 @@
       <c r="A43" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B43" t="str">
-        <v>17.06.2022</v>
+      <c r="B43" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C43">
         <v>1.4</v>
@@ -1144,8 +1145,8 @@
       <c r="A44" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B44" t="str">
-        <v>17.06.2022</v>
+      <c r="B44" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1161,8 +1162,8 @@
       <c r="A45" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B45" t="str">
-        <v>17.06.2022</v>
+      <c r="B45" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C45">
         <v>2.3</v>
@@ -1178,8 +1179,8 @@
       <c r="A46" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B46" t="str">
-        <v>26.06.2022</v>
+      <c r="B46" s="1">
+        <v>44739.0000462963</v>
       </c>
       <c r="C46">
         <v>7.5</v>
@@ -1195,8 +1196,8 @@
       <c r="A47" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B47" t="str">
-        <v>06.06.2022</v>
+      <c r="B47" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C47">
         <v>1.3</v>
@@ -1212,8 +1213,8 @@
       <c r="A48" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B48" t="str">
-        <v>06.06.2022</v>
+      <c r="B48" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C48">
         <v>3.5</v>
@@ -1229,8 +1230,8 @@
       <c r="A49" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B49" t="str">
-        <v>06.06.2022</v>
+      <c r="B49" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1246,8 +1247,8 @@
       <c r="A50" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B50" t="str">
-        <v>06.06.2022</v>
+      <c r="B50" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C50">
         <v>1.2</v>
@@ -1263,8 +1264,8 @@
       <c r="A51" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B51" t="str">
-        <v>06.06.2022</v>
+      <c r="B51" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C51">
         <v>1.4</v>
@@ -1280,8 +1281,8 @@
       <c r="A52" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B52" t="str">
-        <v>07.06.2022</v>
+      <c r="B52" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C52">
         <v>2.2</v>
@@ -1297,8 +1298,8 @@
       <c r="A53" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B53" t="str">
-        <v>11.06.2022</v>
+      <c r="B53" s="1">
+        <v>44724.0000462963</v>
       </c>
       <c r="C53">
         <v>4.4</v>
@@ -1314,8 +1315,8 @@
       <c r="A54" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B54" t="str">
-        <v>20.06.2022</v>
+      <c r="B54" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C54">
         <v>5.9</v>
@@ -1331,8 +1332,8 @@
       <c r="A55" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B55" t="str">
-        <v>07.06.2022</v>
+      <c r="B55" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C55">
         <v>1.3</v>
@@ -1348,8 +1349,8 @@
       <c r="A56" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B56" t="str">
-        <v>08.06.2022</v>
+      <c r="B56" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C56">
         <v>2.3</v>
@@ -1365,8 +1366,8 @@
       <c r="A57" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B57" t="str">
-        <v>08.06.2022</v>
+      <c r="B57" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1382,8 +1383,8 @@
       <c r="A58" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B58" t="str">
-        <v>08.06.2022</v>
+      <c r="B58" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C58">
         <v>0.4</v>
@@ -1400,8 +1401,8 @@
       <c r="A59" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B59" t="str">
-        <v>14.06.2022</v>
+      <c r="B59" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C59">
         <v>2.2</v>
@@ -1417,8 +1418,8 @@
       <c r="A60" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B60" t="str">
-        <v>14.06.2022</v>
+      <c r="B60" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1434,8 +1435,8 @@
       <c r="A61" t="str">
         <v>Kseniia Deina</v>
       </c>
-      <c r="B61" t="str">
-        <v>11.06.2022</v>
+      <c r="B61" s="1">
+        <v>44724.0000462963</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1451,8 +1452,8 @@
       <c r="A62" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B62" t="str">
-        <v>04.07.2022</v>
+      <c r="B62" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -1468,8 +1469,8 @@
       <c r="A63" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B63" t="str">
-        <v>05.07.2022</v>
+      <c r="B63" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C63">
         <v>0.5</v>
@@ -1486,8 +1487,8 @@
       <c r="A64" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B64" t="str">
-        <v>05.07.2022</v>
+      <c r="B64" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1503,8 +1504,8 @@
       <c r="A65" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B65" t="str">
-        <v>05.07.2022</v>
+      <c r="B65" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1521,8 +1522,8 @@
       <c r="A66" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B66" t="str">
-        <v>05.07.2022</v>
+      <c r="B66" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1538,8 +1539,8 @@
       <c r="A67" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B67" t="str">
-        <v>05.07.2022</v>
+      <c r="B67" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C67">
         <v>2.5</v>
@@ -1555,8 +1556,8 @@
       <c r="A68" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B68" t="str">
-        <v>05.07.2022</v>
+      <c r="B68" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1572,8 +1573,8 @@
       <c r="A69" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B69" t="str">
-        <v>06.07.2022</v>
+      <c r="B69" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C69">
         <v>0.5</v>
@@ -1589,8 +1590,8 @@
       <c r="A70" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B70" t="str">
-        <v>06.07.2022</v>
+      <c r="B70" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1606,8 +1607,8 @@
       <c r="A71" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B71" t="str">
-        <v>06.07.2022</v>
+      <c r="B71" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1624,8 +1625,8 @@
       <c r="A72" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B72" t="str">
-        <v>06.07.2022</v>
+      <c r="B72" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1641,8 +1642,8 @@
       <c r="A73" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B73" t="str">
-        <v>06.07.2022</v>
+      <c r="B73" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C73">
         <v>0.5</v>
@@ -1658,8 +1659,8 @@
       <c r="A74" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B74" t="str">
-        <v>07.07.2022</v>
+      <c r="B74" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1675,8 +1676,8 @@
       <c r="A75" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B75" t="str">
-        <v>07.07.2022</v>
+      <c r="B75" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1693,8 +1694,8 @@
       <c r="A76" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B76" t="str">
-        <v>07.07.2022</v>
+      <c r="B76" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1710,8 +1711,8 @@
       <c r="A77" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B77" t="str">
-        <v>07.07.2022</v>
+      <c r="B77" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1727,8 +1728,8 @@
       <c r="A78" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B78" t="str">
-        <v>07.07.2022</v>
+      <c r="B78" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1746,8 +1747,8 @@
       <c r="A79" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B79" t="str">
-        <v>07.07.2022</v>
+      <c r="B79" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1763,8 +1764,8 @@
       <c r="A80" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B80" t="str">
-        <v>08.07.2022</v>
+      <c r="B80" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1782,8 +1783,8 @@
       <c r="A81" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B81" t="str">
-        <v>08.07.2022</v>
+      <c r="B81" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1799,8 +1800,8 @@
       <c r="A82" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B82" t="str">
-        <v>08.07.2022</v>
+      <c r="B82" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C82">
         <v>1.5</v>
@@ -1816,8 +1817,8 @@
       <c r="A83" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B83" t="str">
-        <v>08.07.2022</v>
+      <c r="B83" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1833,8 +1834,8 @@
       <c r="A84" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B84" t="str">
-        <v>08.07.2022</v>
+      <c r="B84" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C84">
         <v>2.5</v>
@@ -1850,8 +1851,8 @@
       <c r="A85" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B85" t="str">
-        <v>09.07.2022</v>
+      <c r="B85" s="1">
+        <v>44752.0000462963</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1867,8 +1868,8 @@
       <c r="A86" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B86" t="str">
-        <v>09.07.2022</v>
+      <c r="B86" s="1">
+        <v>44752.0000462963</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1884,8 +1885,8 @@
       <c r="A87" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B87" t="str">
-        <v>27.06.2022</v>
+      <c r="B87" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -1901,8 +1902,8 @@
       <c r="A88" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B88" t="str">
-        <v>28.06.2022</v>
+      <c r="B88" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1919,8 +1920,8 @@
       <c r="A89" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B89" t="str">
-        <v>28.06.2022</v>
+      <c r="B89" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1936,8 +1937,8 @@
       <c r="A90" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B90" t="str">
-        <v>28.06.2022</v>
+      <c r="B90" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1953,8 +1954,8 @@
       <c r="A91" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B91" t="str">
-        <v>28.06.2022</v>
+      <c r="B91" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -1970,8 +1971,8 @@
       <c r="A92" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B92" t="str">
-        <v>28.06.2022</v>
+      <c r="B92" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1987,8 +1988,8 @@
       <c r="A93" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B93" t="str">
-        <v>29.06.2022</v>
+      <c r="B93" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2004,8 +2005,8 @@
       <c r="A94" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B94" t="str">
-        <v>29.06.2022</v>
+      <c r="B94" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2021,8 +2022,8 @@
       <c r="A95" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B95" t="str">
-        <v>29.06.2022</v>
+      <c r="B95" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2038,8 +2039,8 @@
       <c r="A96" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B96" t="str">
-        <v>29.06.2022</v>
+      <c r="B96" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2055,8 +2056,8 @@
       <c r="A97" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B97" t="str">
-        <v>29.06.2022</v>
+      <c r="B97" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2072,8 +2073,8 @@
       <c r="A98" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B98" t="str">
-        <v>30.06.2022</v>
+      <c r="B98" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2089,8 +2090,8 @@
       <c r="A99" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B99" t="str">
-        <v>30.06.2022</v>
+      <c r="B99" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2106,8 +2107,8 @@
       <c r="A100" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B100" t="str">
-        <v>30.06.2022</v>
+      <c r="B100" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2123,8 +2124,8 @@
       <c r="A101" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B101" t="str">
-        <v>30.06.2022</v>
+      <c r="B101" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2140,8 +2141,8 @@
       <c r="A102" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B102" t="str">
-        <v>01.07.2022</v>
+      <c r="B102" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2159,8 +2160,8 @@
       <c r="A103" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B103" t="str">
-        <v>01.07.2022</v>
+      <c r="B103" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2177,8 +2178,8 @@
       <c r="A104" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B104" t="str">
-        <v>01.07.2022</v>
+      <c r="B104" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2194,8 +2195,8 @@
       <c r="A105" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B105" t="str">
-        <v>01.07.2022</v>
+      <c r="B105" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2212,8 +2213,8 @@
       <c r="A106" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B106" t="str">
-        <v>01.07.2022</v>
+      <c r="B106" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -2229,8 +2230,8 @@
       <c r="A107" t="str">
         <v>Oliver Andrés Silva Torres</v>
       </c>
-      <c r="B107" t="str">
-        <v>01.07.2022</v>
+      <c r="B107" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2246,8 +2247,8 @@
       <c r="A108" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B108" t="str">
-        <v>20.06.2022</v>
+      <c r="B108" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2264,8 +2265,8 @@
       <c r="A109" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B109" t="str">
-        <v>20.06.2022</v>
+      <c r="B109" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2281,8 +2282,8 @@
       <c r="A110" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B110" t="str">
-        <v>20.06.2022</v>
+      <c r="B110" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2298,8 +2299,8 @@
       <c r="A111" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B111" t="str">
-        <v>20.06.2022</v>
+      <c r="B111" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C111">
         <v>0.1</v>
@@ -2315,8 +2316,8 @@
       <c r="A112" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B112" t="str">
-        <v>20.06.2022</v>
+      <c r="B112" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -2332,8 +2333,8 @@
       <c r="A113" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B113" t="str">
-        <v>21.06.2022</v>
+      <c r="B113" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2349,8 +2350,8 @@
       <c r="A114" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B114" t="str">
-        <v>21.06.2022</v>
+      <c r="B114" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2366,8 +2367,8 @@
       <c r="A115" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B115" t="str">
-        <v>21.06.2022</v>
+      <c r="B115" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C115">
         <v>0.5</v>
@@ -2383,8 +2384,8 @@
       <c r="A116" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B116" t="str">
-        <v>21.06.2022</v>
+      <c r="B116" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C116">
         <v>0.1</v>
@@ -2400,8 +2401,8 @@
       <c r="A117" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B117" t="str">
-        <v>21.06.2022</v>
+      <c r="B117" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2417,8 +2418,8 @@
       <c r="A118" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B118" t="str">
-        <v>22.06.2022</v>
+      <c r="B118" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -2434,8 +2435,8 @@
       <c r="A119" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B119" t="str">
-        <v>22.06.2022</v>
+      <c r="B119" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C119">
         <v>0.2</v>
@@ -2451,8 +2452,8 @@
       <c r="A120" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B120" t="str">
-        <v>22.06.2022</v>
+      <c r="B120" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2468,8 +2469,8 @@
       <c r="A121" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B121" t="str">
-        <v>22.06.2022</v>
+      <c r="B121" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -2485,8 +2486,8 @@
       <c r="A122" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B122" t="str">
-        <v>23.06.2022</v>
+      <c r="B122" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -2502,8 +2503,8 @@
       <c r="A123" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B123" t="str">
-        <v>23.06.2022</v>
+      <c r="B123" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2519,8 +2520,8 @@
       <c r="A124" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B124" t="str">
-        <v>23.06.2022</v>
+      <c r="B124" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -2536,8 +2537,8 @@
       <c r="A125" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B125" t="str">
-        <v>23.06.2022</v>
+      <c r="B125" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2553,8 +2554,8 @@
       <c r="A126" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B126" t="str">
-        <v>24.06.2022</v>
+      <c r="B126" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2570,8 +2571,8 @@
       <c r="A127" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B127" t="str">
-        <v>24.06.2022</v>
+      <c r="B127" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2587,8 +2588,8 @@
       <c r="A128" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B128" t="str">
-        <v>24.06.2022</v>
+      <c r="B128" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -2604,8 +2605,8 @@
       <c r="A129" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B129" t="str">
-        <v>27.06.2022</v>
+      <c r="B129" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -2621,8 +2622,8 @@
       <c r="A130" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B130" t="str">
-        <v>27.06.2022</v>
+      <c r="B130" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -2638,8 +2639,8 @@
       <c r="A131" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B131" t="str">
-        <v>27.06.2022</v>
+      <c r="B131" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -2655,8 +2656,8 @@
       <c r="A132" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B132" t="str">
-        <v>27.06.2022</v>
+      <c r="B132" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2672,8 +2673,8 @@
       <c r="A133" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B133" t="str">
-        <v>28.06.2022</v>
+      <c r="B133" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C133">
         <v>8</v>
@@ -2689,8 +2690,8 @@
       <c r="A134" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B134" t="str">
-        <v>29.06.2022</v>
+      <c r="B134" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -2706,8 +2707,8 @@
       <c r="A135" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B135" t="str">
-        <v>29.06.2022</v>
+      <c r="B135" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -2723,8 +2724,8 @@
       <c r="A136" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B136" t="str">
-        <v>29.06.2022</v>
+      <c r="B136" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2740,8 +2741,8 @@
       <c r="A137" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B137" t="str">
-        <v>30.06.2022</v>
+      <c r="B137" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -2757,8 +2758,8 @@
       <c r="A138" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B138" t="str">
-        <v>30.06.2022</v>
+      <c r="B138" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -2774,8 +2775,8 @@
       <c r="A139" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B139" t="str">
-        <v>30.06.2022</v>
+      <c r="B139" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -2791,8 +2792,8 @@
       <c r="A140" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B140" t="str">
-        <v>01.07.2022</v>
+      <c r="B140" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -2808,8 +2809,8 @@
       <c r="A141" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B141" t="str">
-        <v>01.07.2022</v>
+      <c r="B141" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2825,8 +2826,8 @@
       <c r="A142" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B142" t="str">
-        <v>01.07.2022</v>
+      <c r="B142" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -2842,8 +2843,8 @@
       <c r="A143" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B143" t="str">
-        <v>01.07.2022</v>
+      <c r="B143" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -2859,8 +2860,8 @@
       <c r="A144" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B144" t="str">
-        <v>20.06.2022</v>
+      <c r="B144" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -2876,8 +2877,8 @@
       <c r="A145" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B145" t="str">
-        <v>20.06.2022</v>
+      <c r="B145" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -2894,8 +2895,8 @@
       <c r="A146" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B146" t="str">
-        <v>20.06.2022</v>
+      <c r="B146" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -2911,8 +2912,8 @@
       <c r="A147" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B147" t="str">
-        <v>20.06.2022</v>
+      <c r="B147" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2928,8 +2929,8 @@
       <c r="A148" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B148" t="str">
-        <v>21.06.2022</v>
+      <c r="B148" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -2945,8 +2946,8 @@
       <c r="A149" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B149" t="str">
-        <v>21.06.2022</v>
+      <c r="B149" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -2963,8 +2964,8 @@
       <c r="A150" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B150" t="str">
-        <v>21.06.2022</v>
+      <c r="B150" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2980,8 +2981,8 @@
       <c r="A151" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B151" t="str">
-        <v>21.06.2022</v>
+      <c r="B151" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2997,8 +2998,8 @@
       <c r="A152" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B152" t="str">
-        <v>21.06.2022</v>
+      <c r="B152" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3014,8 +3015,8 @@
       <c r="A153" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B153" t="str">
-        <v>22.06.2022</v>
+      <c r="B153" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -3031,8 +3032,8 @@
       <c r="A154" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B154" t="str">
-        <v>22.06.2022</v>
+      <c r="B154" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C154">
         <v>2.5</v>
@@ -3049,8 +3050,8 @@
       <c r="A155" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B155" t="str">
-        <v>22.06.2022</v>
+      <c r="B155" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C155">
         <v>2.5</v>
@@ -3066,8 +3067,8 @@
       <c r="A156" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B156" t="str">
-        <v>22.06.2022</v>
+      <c r="B156" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -3083,8 +3084,8 @@
       <c r="A157" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B157" t="str">
-        <v>23.06.2022</v>
+      <c r="B157" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -3100,8 +3101,8 @@
       <c r="A158" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B158" t="str">
-        <v>23.06.2022</v>
+      <c r="B158" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -3118,8 +3119,8 @@
       <c r="A159" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B159" t="str">
-        <v>23.06.2022</v>
+      <c r="B159" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -3135,8 +3136,8 @@
       <c r="A160" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B160" t="str">
-        <v>23.06.2022</v>
+      <c r="B160" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3152,8 +3153,8 @@
       <c r="A161" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B161" t="str">
-        <v>24.06.2022</v>
+      <c r="B161" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -3169,8 +3170,8 @@
       <c r="A162" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B162" t="str">
-        <v>24.06.2022</v>
+      <c r="B162" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -3187,8 +3188,8 @@
       <c r="A163" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B163" t="str">
-        <v>24.06.2022</v>
+      <c r="B163" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -3204,8 +3205,8 @@
       <c r="A164" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B164" t="str">
-        <v>24.06.2022</v>
+      <c r="B164" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3221,8 +3222,8 @@
       <c r="A165" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B165" t="str">
-        <v>13.06.2022</v>
+      <c r="B165" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -3238,8 +3239,8 @@
       <c r="A166" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B166" t="str">
-        <v>13.06.2022</v>
+      <c r="B166" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -3256,8 +3257,8 @@
       <c r="A167" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B167" t="str">
-        <v>13.06.2022</v>
+      <c r="B167" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3273,8 +3274,8 @@
       <c r="A168" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B168" t="str">
-        <v>13.06.2022</v>
+      <c r="B168" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -3290,8 +3291,8 @@
       <c r="A169" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B169" t="str">
-        <v>14.06.2022</v>
+      <c r="B169" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -3307,8 +3308,8 @@
       <c r="A170" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B170" t="str">
-        <v>14.06.2022</v>
+      <c r="B170" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -3325,8 +3326,8 @@
       <c r="A171" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B171" t="str">
-        <v>14.06.2022</v>
+      <c r="B171" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -3342,8 +3343,8 @@
       <c r="A172" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B172" t="str">
-        <v>14.06.2022</v>
+      <c r="B172" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -3359,8 +3360,8 @@
       <c r="A173" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B173" t="str">
-        <v>15.06.2022</v>
+      <c r="B173" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -3376,8 +3377,8 @@
       <c r="A174" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B174" t="str">
-        <v>15.06.2022</v>
+      <c r="B174" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C174">
         <v>2.5</v>
@@ -3394,8 +3395,8 @@
       <c r="A175" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B175" t="str">
-        <v>15.06.2022</v>
+      <c r="B175" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C175">
         <v>2.5</v>
@@ -3411,8 +3412,8 @@
       <c r="A176" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B176" t="str">
-        <v>15.06.2022</v>
+      <c r="B176" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3428,8 +3429,8 @@
       <c r="A177" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B177" t="str">
-        <v>16.06.2022</v>
+      <c r="B177" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -3445,8 +3446,8 @@
       <c r="A178" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B178" t="str">
-        <v>17.06.2022</v>
+      <c r="B178" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -3462,8 +3463,8 @@
       <c r="A179" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B179" t="str">
-        <v>17.06.2022</v>
+      <c r="B179" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C179">
         <v>2</v>
@@ -3480,8 +3481,8 @@
       <c r="A180" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B180" t="str">
-        <v>17.06.2022</v>
+      <c r="B180" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C180">
         <v>2</v>
@@ -3497,8 +3498,8 @@
       <c r="A181" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B181" t="str">
-        <v>17.06.2022</v>
+      <c r="B181" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -3514,8 +3515,8 @@
       <c r="A182" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B182" t="str">
-        <v>04.07.2022</v>
+      <c r="B182" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C182">
         <v>0.83</v>
@@ -3531,8 +3532,8 @@
       <c r="A183" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B183" t="str">
-        <v>04.07.2022</v>
+      <c r="B183" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -3548,8 +3549,8 @@
       <c r="A184" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B184" t="str">
-        <v>04.07.2022</v>
+      <c r="B184" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -3565,8 +3566,8 @@
       <c r="A185" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B185" t="str">
-        <v>04.07.2022</v>
+      <c r="B185" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C185">
         <v>2.5</v>
@@ -3582,8 +3583,8 @@
       <c r="A186" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B186" t="str">
-        <v>05.07.2022</v>
+      <c r="B186" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C186">
         <v>3</v>
@@ -3599,8 +3600,8 @@
       <c r="A187" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B187" t="str">
-        <v>05.07.2022</v>
+      <c r="B187" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3616,8 +3617,8 @@
       <c r="A188" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B188" t="str">
-        <v>05.07.2022</v>
+      <c r="B188" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -3633,8 +3634,8 @@
       <c r="A189" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B189" t="str">
-        <v>05.07.2022</v>
+      <c r="B189" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -3650,8 +3651,8 @@
       <c r="A190" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B190" t="str">
-        <v>06.07.2022</v>
+      <c r="B190" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -3667,8 +3668,8 @@
       <c r="A191" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B191" t="str">
-        <v>06.07.2022</v>
+      <c r="B191" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C191">
         <v>3</v>
@@ -3684,8 +3685,8 @@
       <c r="A192" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B192" t="str">
-        <v>06.07.2022</v>
+      <c r="B192" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C192">
         <v>0.5</v>
@@ -3701,8 +3702,8 @@
       <c r="A193" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B193" t="str">
-        <v>06.07.2022</v>
+      <c r="B193" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -3718,8 +3719,8 @@
       <c r="A194" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B194" t="str">
-        <v>07.07.2022</v>
+      <c r="B194" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -3735,8 +3736,8 @@
       <c r="A195" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B195" t="str">
-        <v>07.07.2022</v>
+      <c r="B195" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C195">
         <v>2.7</v>
@@ -3752,8 +3753,8 @@
       <c r="A196" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B196" t="str">
-        <v>07.07.2022</v>
+      <c r="B196" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -3769,8 +3770,8 @@
       <c r="A197" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B197" t="str">
-        <v>08.07.2022</v>
+      <c r="B197" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C197">
         <v>8</v>
@@ -3786,8 +3787,8 @@
       <c r="A198" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B198" t="str">
-        <v>06.06.2022</v>
+      <c r="B198" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -3803,8 +3804,8 @@
       <c r="A199" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B199" t="str">
-        <v>06.06.2022</v>
+      <c r="B199" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -3820,8 +3821,8 @@
       <c r="A200" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B200" t="str">
-        <v>06.06.2022</v>
+      <c r="B200" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -3837,8 +3838,8 @@
       <c r="A201" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B201" t="str">
-        <v>06.06.2022</v>
+      <c r="B201" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -3854,8 +3855,8 @@
       <c r="A202" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B202" t="str">
-        <v>07.06.2022</v>
+      <c r="B202" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -3871,8 +3872,8 @@
       <c r="A203" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B203" t="str">
-        <v>07.06.2022</v>
+      <c r="B203" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -3888,8 +3889,8 @@
       <c r="A204" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B204" t="str">
-        <v>07.06.2022</v>
+      <c r="B204" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -3905,8 +3906,8 @@
       <c r="A205" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B205" t="str">
-        <v>07.06.2022</v>
+      <c r="B205" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -3922,8 +3923,8 @@
       <c r="A206" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B206" t="str">
-        <v>07.06.2022</v>
+      <c r="B206" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -3939,8 +3940,8 @@
       <c r="A207" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B207" t="str">
-        <v>08.06.2022</v>
+      <c r="B207" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -3957,8 +3958,8 @@
       <c r="A208" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B208" t="str">
-        <v>08.06.2022</v>
+      <c r="B208" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -3974,8 +3975,8 @@
       <c r="A209" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B209" t="str">
-        <v>08.06.2022</v>
+      <c r="B209" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -3991,8 +3992,8 @@
       <c r="A210" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B210" t="str">
-        <v>09.06.2022</v>
+      <c r="B210" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -4008,8 +4009,8 @@
       <c r="A211" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B211" t="str">
-        <v>09.06.2022</v>
+      <c r="B211" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -4025,8 +4026,8 @@
       <c r="A212" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B212" t="str">
-        <v>09.06.2022</v>
+      <c r="B212" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -4042,8 +4043,8 @@
       <c r="A213" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B213" t="str">
-        <v>09.06.2022</v>
+      <c r="B213" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -4059,8 +4060,8 @@
       <c r="A214" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B214" t="str">
-        <v>10.06.2022</v>
+      <c r="B214" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -4077,8 +4078,8 @@
       <c r="A215" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B215" t="str">
-        <v>10.06.2022</v>
+      <c r="B215" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -4095,8 +4096,8 @@
       <c r="A216" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B216" t="str">
-        <v>10.06.2022</v>
+      <c r="B216" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -4112,8 +4113,8 @@
       <c r="A217" t="str">
         <v>Slutskyi Dmytro</v>
       </c>
-      <c r="B217" t="str">
-        <v>10.06.2022</v>
+      <c r="B217" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4129,8 +4130,8 @@
       <c r="A218" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B218" t="str">
-        <v>13.06.2022</v>
+      <c r="B218" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C218">
         <v>0.5</v>
@@ -4146,8 +4147,8 @@
       <c r="A219" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B219" t="str">
-        <v>13.06.2022</v>
+      <c r="B219" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -4164,8 +4165,8 @@
       <c r="A220" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B220" t="str">
-        <v>13.06.2022</v>
+      <c r="B220" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4181,8 +4182,8 @@
       <c r="A221" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B221" t="str">
-        <v>14.06.2022</v>
+      <c r="B221" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4198,8 +4199,8 @@
       <c r="A222" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B222" t="str">
-        <v>14.06.2022</v>
+      <c r="B222" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C222">
         <v>2</v>
@@ -4216,8 +4217,8 @@
       <c r="A223" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B223" t="str">
-        <v>14.06.2022</v>
+      <c r="B223" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -4233,8 +4234,8 @@
       <c r="A224" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B224" t="str">
-        <v>14.06.2022</v>
+      <c r="B224" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -4250,8 +4251,8 @@
       <c r="A225" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B225" t="str">
-        <v>15.06.2022</v>
+      <c r="B225" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -4268,8 +4269,8 @@
       <c r="A226" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B226" t="str">
-        <v>15.06.2022</v>
+      <c r="B226" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C226">
         <v>2.5</v>
@@ -4285,8 +4286,8 @@
       <c r="A227" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B227" t="str">
-        <v>15.06.2022</v>
+      <c r="B227" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4302,8 +4303,8 @@
       <c r="A228" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B228" t="str">
-        <v>16.06.2022</v>
+      <c r="B228" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C228">
         <v>8</v>
@@ -4319,8 +4320,8 @@
       <c r="A229" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B229" t="str">
-        <v>17.06.2022</v>
+      <c r="B229" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C229">
         <v>0.5</v>
@@ -4336,8 +4337,8 @@
       <c r="A230" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B230" t="str">
-        <v>17.06.2022</v>
+      <c r="B230" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -4354,8 +4355,8 @@
       <c r="A231" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B231" t="str">
-        <v>17.06.2022</v>
+      <c r="B231" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -4371,8 +4372,8 @@
       <c r="A232" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B232" t="str">
-        <v>17.06.2022</v>
+      <c r="B232" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4388,8 +4389,8 @@
       <c r="A233" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B233" t="str">
-        <v>06.06.2022</v>
+      <c r="B233" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -4405,8 +4406,8 @@
       <c r="A234" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B234" t="str">
-        <v>06.06.2022</v>
+      <c r="B234" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -4422,8 +4423,8 @@
       <c r="A235" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B235" t="str">
-        <v>06.06.2022</v>
+      <c r="B235" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -4439,8 +4440,8 @@
       <c r="A236" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B236" t="str">
-        <v>07.06.2022</v>
+      <c r="B236" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -4456,8 +4457,8 @@
       <c r="A237" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B237" t="str">
-        <v>07.06.2022</v>
+      <c r="B237" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -4473,8 +4474,8 @@
       <c r="A238" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B238" t="str">
-        <v>07.06.2022</v>
+      <c r="B238" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C238">
         <v>0.1</v>
@@ -4490,8 +4491,8 @@
       <c r="A239" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B239" t="str">
-        <v>08.06.2022</v>
+      <c r="B239" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C239">
         <v>2</v>
@@ -4508,8 +4509,8 @@
       <c r="A240" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B240" t="str">
-        <v>08.06.2022</v>
+      <c r="B240" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -4525,8 +4526,8 @@
       <c r="A241" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B241" t="str">
-        <v>09.06.2022</v>
+      <c r="B241" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C241">
         <v>2</v>
@@ -4542,8 +4543,8 @@
       <c r="A242" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B242" t="str">
-        <v>09.06.2022</v>
+      <c r="B242" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -4559,8 +4560,8 @@
       <c r="A243" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B243" t="str">
-        <v>09.06.2022</v>
+      <c r="B243" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -4576,8 +4577,8 @@
       <c r="A244" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B244" t="str">
-        <v>09.06.2022</v>
+      <c r="B244" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C244">
         <v>0.5</v>
@@ -4593,8 +4594,8 @@
       <c r="A245" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B245" t="str">
-        <v>10.06.2022</v>
+      <c r="B245" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C245">
         <v>2</v>
@@ -4611,8 +4612,8 @@
       <c r="A246" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B246" t="str">
-        <v>10.06.2022</v>
+      <c r="B246" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C246">
         <v>2</v>
@@ -4628,8 +4629,8 @@
       <c r="A247" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B247" t="str">
-        <v>10.06.2022</v>
+      <c r="B247" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -4646,8 +4647,8 @@
       <c r="A248" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B248" t="str">
-        <v>10.06.2022</v>
+      <c r="B248" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4663,8 +4664,8 @@
       <c r="A249" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B249" t="str">
-        <v>10.06.2022</v>
+      <c r="B249" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C249">
         <v>0.1</v>
@@ -4680,8 +4681,8 @@
       <c r="A250" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B250" t="str">
-        <v>10.06.2022</v>
+      <c r="B250" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -4697,8 +4698,8 @@
       <c r="A251" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B251" t="str">
-        <v>11.06.2022</v>
+      <c r="B251" s="1">
+        <v>44724.0000462963</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -4714,8 +4715,8 @@
       <c r="A252" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B252" t="str">
-        <v>11.06.2022</v>
+      <c r="B252" s="1">
+        <v>44724.0000462963</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -4731,8 +4732,8 @@
       <c r="A253" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B253" t="str">
-        <v>11.06.2022</v>
+      <c r="B253" s="1">
+        <v>44724.0000462963</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -4748,8 +4749,8 @@
       <c r="A254" t="str">
         <v>Deina Zakhar</v>
       </c>
-      <c r="B254" t="str">
-        <v>11.06.2022</v>
+      <c r="B254" s="1">
+        <v>44724.0000462963</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -4765,8 +4766,8 @@
       <c r="A255" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B255" t="str">
-        <v>06.07.2022</v>
+      <c r="B255" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C255">
         <v>6</v>
@@ -4782,8 +4783,8 @@
       <c r="A256" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B256" t="str">
-        <v>10.07.2022</v>
+      <c r="B256" s="1">
+        <v>44753.0000462963</v>
       </c>
       <c r="C256">
         <v>6</v>
@@ -4799,8 +4800,8 @@
       <c r="A257" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B257" t="str">
-        <v>04.07.2022</v>
+      <c r="B257" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -4816,8 +4817,8 @@
       <c r="A258" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B258" t="str">
-        <v>25.06.2022</v>
+      <c r="B258" s="1">
+        <v>44738.0000462963</v>
       </c>
       <c r="C258">
         <v>3</v>
@@ -4833,8 +4834,8 @@
       <c r="A259" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B259" t="str">
-        <v>30.06.2022</v>
+      <c r="B259" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -4850,8 +4851,8 @@
       <c r="A260" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B260" t="str">
-        <v>04.07.2022</v>
+      <c r="B260" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C260">
         <v>0.666</v>
@@ -4867,8 +4868,8 @@
       <c r="A261" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B261" t="str">
-        <v>04.07.2022</v>
+      <c r="B261" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C261">
         <v>0.7</v>
@@ -4884,8 +4885,8 @@
       <c r="A262" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B262" t="str">
-        <v>04.07.2022</v>
+      <c r="B262" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C262">
         <v>1.166677</v>
@@ -4901,8 +4902,8 @@
       <c r="A263" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B263" t="str">
-        <v>04.07.2022</v>
+      <c r="B263" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C263">
         <v>0.2</v>
@@ -4918,8 +4919,8 @@
       <c r="A264" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B264" t="str">
-        <v>04.07.2022</v>
+      <c r="B264" s="1">
+        <v>44747.0000462963</v>
       </c>
       <c r="C264">
         <v>6</v>
@@ -4935,8 +4936,8 @@
       <c r="A265" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B265" t="str">
-        <v>05.07.2022</v>
+      <c r="B265" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -4952,8 +4953,8 @@
       <c r="A266" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B266" t="str">
-        <v>05.07.2022</v>
+      <c r="B266" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C266">
         <v>0.5</v>
@@ -4969,8 +4970,8 @@
       <c r="A267" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B267" t="str">
-        <v>05.07.2022</v>
+      <c r="B267" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C267">
         <v>2.1667</v>
@@ -4986,8 +4987,8 @@
       <c r="A268" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B268" t="str">
-        <v>05.07.2022</v>
+      <c r="B268" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C268">
         <v>0.25</v>
@@ -5003,8 +5004,8 @@
       <c r="A269" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B269" t="str">
-        <v>05.07.2022</v>
+      <c r="B269" s="1">
+        <v>44748.0000462963</v>
       </c>
       <c r="C269">
         <v>0.5</v>
@@ -5020,8 +5021,8 @@
       <c r="A270" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B270" t="str">
-        <v>06.07.2022</v>
+      <c r="B270" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -5037,8 +5038,8 @@
       <c r="A271" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B271" t="str">
-        <v>06.07.2022</v>
+      <c r="B271" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C271">
         <v>0.5</v>
@@ -5054,8 +5055,8 @@
       <c r="A272" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B272" t="str">
-        <v>06.07.2022</v>
+      <c r="B272" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C272">
         <v>0.75</v>
@@ -5071,8 +5072,8 @@
       <c r="A273" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B273" t="str">
-        <v>06.07.2022</v>
+      <c r="B273" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C273">
         <v>0.8333</v>
@@ -5088,8 +5089,8 @@
       <c r="A274" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B274" t="str">
-        <v>06.07.2022</v>
+      <c r="B274" s="1">
+        <v>44749.0000462963</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -5105,8 +5106,8 @@
       <c r="A275" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B275" t="str">
-        <v>07.07.2022</v>
+      <c r="B275" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C275">
         <v>2.5</v>
@@ -5122,8 +5123,8 @@
       <c r="A276" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B276" t="str">
-        <v>07.07.2022</v>
+      <c r="B276" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -5139,8 +5140,8 @@
       <c r="A277" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B277" t="str">
-        <v>07.07.2022</v>
+      <c r="B277" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -5156,8 +5157,8 @@
       <c r="A278" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B278" t="str">
-        <v>07.07.2022</v>
+      <c r="B278" s="1">
+        <v>44750.0000462963</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -5173,8 +5174,8 @@
       <c r="A279" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B279" t="str">
-        <v>08.07.2022</v>
+      <c r="B279" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C279">
         <v>8</v>
@@ -5190,8 +5191,8 @@
       <c r="A280" t="str">
         <v>Roua Dib</v>
       </c>
-      <c r="B280" t="str">
-        <v>08.07.2022</v>
+      <c r="B280" s="1">
+        <v>44751.0000462963</v>
       </c>
       <c r="C280">
         <v>1.5</v>
@@ -5207,8 +5208,8 @@
       <c r="A281" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B281" t="str">
-        <v>27.06.2022</v>
+      <c r="B281" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C281">
         <v>0.95</v>
@@ -5224,8 +5225,8 @@
       <c r="A282" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B282" t="str">
-        <v>27.06.2022</v>
+      <c r="B282" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C282">
         <v>0.35</v>
@@ -5241,8 +5242,8 @@
       <c r="A283" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B283" t="str">
-        <v>27.06.2022</v>
+      <c r="B283" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C283">
         <v>0.75</v>
@@ -5258,8 +5259,8 @@
       <c r="A284" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B284" t="str">
-        <v>27.06.2022</v>
+      <c r="B284" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C284">
         <v>0.8</v>
@@ -5275,8 +5276,8 @@
       <c r="A285" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B285" t="str">
-        <v>28.06.2022</v>
+      <c r="B285" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C285">
         <v>3</v>
@@ -5292,8 +5293,8 @@
       <c r="A286" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B286" t="str">
-        <v>29.06.2022</v>
+      <c r="B286" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C286">
         <v>2</v>
@@ -5309,8 +5310,8 @@
       <c r="A287" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B287" t="str">
-        <v>29.06.2022</v>
+      <c r="B287" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -5326,8 +5327,8 @@
       <c r="A288" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B288" t="str">
-        <v>30.06.2022</v>
+      <c r="B288" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C288">
         <v>0.15</v>
@@ -5343,8 +5344,8 @@
       <c r="A289" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B289" t="str">
-        <v>30.06.2022</v>
+      <c r="B289" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C289">
         <v>1.5</v>
@@ -5360,8 +5361,8 @@
       <c r="A290" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B290" t="str">
-        <v>30.06.2022</v>
+      <c r="B290" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -5377,8 +5378,8 @@
       <c r="A291" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B291" t="str">
-        <v>01.07.2022</v>
+      <c r="B291" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -5394,8 +5395,8 @@
       <c r="A292" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B292" t="str">
-        <v>01.07.2022</v>
+      <c r="B292" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -5411,8 +5412,8 @@
       <c r="A293" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B293" t="str">
-        <v>01.07.2022</v>
+      <c r="B293" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C293">
         <v>0.5</v>
@@ -5428,8 +5429,8 @@
       <c r="A294" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B294" t="str">
-        <v>01.07.2022</v>
+      <c r="B294" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -5445,8 +5446,8 @@
       <c r="A295" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B295" t="str">
-        <v>20.06.2022</v>
+      <c r="B295" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C295">
         <v>0.1</v>
@@ -5462,8 +5463,8 @@
       <c r="A296" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B296" t="str">
-        <v>20.06.2022</v>
+      <c r="B296" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C296">
         <v>2.5</v>
@@ -5479,8 +5480,8 @@
       <c r="A297" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B297" t="str">
-        <v>21.06.2022</v>
+      <c r="B297" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C297">
         <v>0.4</v>
@@ -5496,8 +5497,8 @@
       <c r="A298" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B298" t="str">
-        <v>21.06.2022</v>
+      <c r="B298" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C298">
         <v>0.15</v>
@@ -5513,8 +5514,8 @@
       <c r="A299" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B299" t="str">
-        <v>21.06.2022</v>
+      <c r="B299" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C299">
         <v>0.2</v>
@@ -5530,8 +5531,8 @@
       <c r="A300" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B300" t="str">
-        <v>21.06.2022</v>
+      <c r="B300" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C300">
         <v>1.5</v>
@@ -5547,8 +5548,8 @@
       <c r="A301" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B301" t="str">
-        <v>21.06.2022</v>
+      <c r="B301" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -5564,8 +5565,8 @@
       <c r="A302" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B302" t="str">
-        <v>22.06.2022</v>
+      <c r="B302" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C302">
         <v>1.5</v>
@@ -5581,8 +5582,8 @@
       <c r="A303" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B303" t="str">
-        <v>22.06.2022</v>
+      <c r="B303" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C303">
         <v>0.8</v>
@@ -5598,8 +5599,8 @@
       <c r="A304" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B304" t="str">
-        <v>22.06.2022</v>
+      <c r="B304" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C304">
         <v>1.5</v>
@@ -5615,8 +5616,8 @@
       <c r="A305" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B305" t="str">
-        <v>23.06.2022</v>
+      <c r="B305" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C305">
         <v>8</v>
@@ -5632,8 +5633,8 @@
       <c r="A306" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B306" t="str">
-        <v>24.06.2022</v>
+      <c r="B306" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C306">
         <v>8</v>
@@ -5649,8 +5650,8 @@
       <c r="A307" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B307" t="str">
-        <v>25.06.2022</v>
+      <c r="B307" s="1">
+        <v>44738.0000462963</v>
       </c>
       <c r="C307">
         <v>0.8</v>
@@ -5666,8 +5667,8 @@
       <c r="A308" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B308" t="str">
-        <v>25.06.2022</v>
+      <c r="B308" s="1">
+        <v>44738.0000462963</v>
       </c>
       <c r="C308">
         <v>1.75</v>
@@ -5683,8 +5684,8 @@
       <c r="A309" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B309" t="str">
-        <v>13.06.2022</v>
+      <c r="B309" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C309">
         <v>2.3</v>
@@ -5700,8 +5701,8 @@
       <c r="A310" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B310" t="str">
-        <v>13.06.2022</v>
+      <c r="B310" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C310">
         <v>1.3</v>
@@ -5717,8 +5718,8 @@
       <c r="A311" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B311" t="str">
-        <v>13.06.2022</v>
+      <c r="B311" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C311">
         <v>1.3</v>
@@ -5734,8 +5735,8 @@
       <c r="A312" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B312" t="str">
-        <v>13.06.2022</v>
+      <c r="B312" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C312">
         <v>2.3</v>
@@ -5751,8 +5752,8 @@
       <c r="A313" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B313" t="str">
-        <v>13.06.2022</v>
+      <c r="B313" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C313">
         <v>2</v>
@@ -5769,8 +5770,8 @@
       <c r="A314" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B314" t="str">
-        <v>14.06.2022</v>
+      <c r="B314" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -5786,8 +5787,8 @@
       <c r="A315" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B315" t="str">
-        <v>14.06.2022</v>
+      <c r="B315" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C315">
         <v>2.3</v>
@@ -5803,8 +5804,8 @@
       <c r="A316" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B316" t="str">
-        <v>14.06.2022</v>
+      <c r="B316" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -5820,8 +5821,8 @@
       <c r="A317" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B317" t="str">
-        <v>14.06.2022</v>
+      <c r="B317" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C317">
         <v>1.3</v>
@@ -5837,8 +5838,8 @@
       <c r="A318" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B318" t="str">
-        <v>14.06.2022</v>
+      <c r="B318" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -5854,8 +5855,8 @@
       <c r="A319" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B319" t="str">
-        <v>15.06.2022</v>
+      <c r="B319" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C319">
         <v>2</v>
@@ -5871,8 +5872,8 @@
       <c r="A320" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B320" t="str">
-        <v>15.06.2022</v>
+      <c r="B320" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C320">
         <v>2</v>
@@ -5888,8 +5889,8 @@
       <c r="A321" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B321" t="str">
-        <v>15.06.2022</v>
+      <c r="B321" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C321">
         <v>2</v>
@@ -5905,8 +5906,8 @@
       <c r="A322" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B322" t="str">
-        <v>15.06.2022</v>
+      <c r="B322" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C322">
         <v>2</v>
@@ -5922,8 +5923,8 @@
       <c r="A323" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B323" t="str">
-        <v>16.06.2022</v>
+      <c r="B323" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C323">
         <v>3</v>
@@ -5939,8 +5940,8 @@
       <c r="A324" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B324" t="str">
-        <v>16.06.2022</v>
+      <c r="B324" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C324">
         <v>3</v>
@@ -5956,8 +5957,8 @@
       <c r="A325" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B325" t="str">
-        <v>16.06.2022</v>
+      <c r="B325" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -5973,8 +5974,8 @@
       <c r="A326" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B326" t="str">
-        <v>17.06.2022</v>
+      <c r="B326" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -5990,8 +5991,8 @@
       <c r="A327" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B327" t="str">
-        <v>17.06.2022</v>
+      <c r="B327" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -6007,8 +6008,8 @@
       <c r="A328" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B328" t="str">
-        <v>17.06.2022</v>
+      <c r="B328" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -6024,8 +6025,8 @@
       <c r="A329" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B329" t="str">
-        <v>20.06.2022</v>
+      <c r="B329" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -6041,8 +6042,8 @@
       <c r="A330" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B330" t="str">
-        <v>20.06.2022</v>
+      <c r="B330" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -6058,8 +6059,8 @@
       <c r="A331" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B331" t="str">
-        <v>20.06.2022</v>
+      <c r="B331" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -6075,8 +6076,8 @@
       <c r="A332" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B332" t="str">
-        <v>20.06.2022</v>
+      <c r="B332" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C332">
         <v>0.3</v>
@@ -6092,8 +6093,8 @@
       <c r="A333" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B333" t="str">
-        <v>20.06.2022</v>
+      <c r="B333" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C333">
         <v>0.3</v>
@@ -6109,8 +6110,8 @@
       <c r="A334" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B334" t="str">
-        <v>20.06.2022</v>
+      <c r="B334" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -6126,8 +6127,8 @@
       <c r="A335" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B335" t="str">
-        <v>20.06.2022</v>
+      <c r="B335" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -6143,8 +6144,8 @@
       <c r="A336" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B336" t="str">
-        <v>20.06.2022</v>
+      <c r="B336" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C336">
         <v>1.3</v>
@@ -6160,8 +6161,8 @@
       <c r="A337" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B337" t="str">
-        <v>21.06.2022</v>
+      <c r="B337" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -6177,8 +6178,8 @@
       <c r="A338" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B338" t="str">
-        <v>21.06.2022</v>
+      <c r="B338" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C338">
         <v>2</v>
@@ -6194,8 +6195,8 @@
       <c r="A339" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B339" t="str">
-        <v>21.06.2022</v>
+      <c r="B339" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -6211,8 +6212,8 @@
       <c r="A340" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B340" t="str">
-        <v>21.06.2022</v>
+      <c r="B340" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C340">
         <v>1.3</v>
@@ -6228,8 +6229,8 @@
       <c r="A341" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B341" t="str">
-        <v>22.06.2022</v>
+      <c r="B341" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C341">
         <v>3</v>
@@ -6245,8 +6246,8 @@
       <c r="A342" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B342" t="str">
-        <v>22.06.2022</v>
+      <c r="B342" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C342">
         <v>2</v>
@@ -6262,8 +6263,8 @@
       <c r="A343" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B343" t="str">
-        <v>22.06.2022</v>
+      <c r="B343" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C343">
         <v>1.3</v>
@@ -6279,8 +6280,8 @@
       <c r="A344" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B344" t="str">
-        <v>23.06.2022</v>
+      <c r="B344" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -6296,8 +6297,8 @@
       <c r="A345" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B345" t="str">
-        <v>23.06.2022</v>
+      <c r="B345" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C345">
         <v>3</v>
@@ -6313,8 +6314,8 @@
       <c r="A346" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B346" t="str">
-        <v>23.06.2022</v>
+      <c r="B346" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -6330,8 +6331,8 @@
       <c r="A347" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B347" t="str">
-        <v>24.06.2022</v>
+      <c r="B347" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -6347,8 +6348,8 @@
       <c r="A348" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B348" t="str">
-        <v>24.06.2022</v>
+      <c r="B348" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C348">
         <v>3</v>
@@ -6364,8 +6365,8 @@
       <c r="A349" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B349" t="str">
-        <v>24.06.2022</v>
+      <c r="B349" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C349">
         <v>0.75</v>
@@ -6381,8 +6382,8 @@
       <c r="A350" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B350" t="str">
-        <v>25.06.2022</v>
+      <c r="B350" s="1">
+        <v>44738.0000462963</v>
       </c>
       <c r="C350">
         <v>1.3</v>
@@ -6398,8 +6399,8 @@
       <c r="A351" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B351" t="str">
-        <v>26.06.2022</v>
+      <c r="B351" s="1">
+        <v>44739.0000462963</v>
       </c>
       <c r="C351">
         <v>1.3</v>
@@ -6415,8 +6416,8 @@
       <c r="A352" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B352" t="str">
-        <v>11.07.2022</v>
+      <c r="B352" s="1">
+        <v>44754.0000462963</v>
       </c>
       <c r="C352">
         <v>40</v>
@@ -6432,8 +6433,8 @@
       <c r="A353" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B353" t="str">
-        <v>13.06.2022</v>
+      <c r="B353" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C353">
         <v>2</v>
@@ -6449,8 +6450,8 @@
       <c r="A354" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B354" t="str">
-        <v>13.06.2022</v>
+      <c r="B354" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C354">
         <v>0.6</v>
@@ -6466,8 +6467,8 @@
       <c r="A355" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B355" t="str">
-        <v>13.06.2022</v>
+      <c r="B355" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C355">
         <v>0.25</v>
@@ -6483,8 +6484,8 @@
       <c r="A356" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B356" t="str">
-        <v>13.06.2022</v>
+      <c r="B356" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C356">
         <v>0.5</v>
@@ -6500,8 +6501,8 @@
       <c r="A357" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B357" t="str">
-        <v>13.06.2022</v>
+      <c r="B357" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C357">
         <v>0.35</v>
@@ -6517,8 +6518,8 @@
       <c r="A358" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B358" t="str">
-        <v>14.06.2022</v>
+      <c r="B358" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C358">
         <v>0.8</v>
@@ -6534,8 +6535,8 @@
       <c r="A359" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B359" t="str">
-        <v>14.06.2022</v>
+      <c r="B359" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C359">
         <v>2.2</v>
@@ -6551,8 +6552,8 @@
       <c r="A360" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B360" t="str">
-        <v>14.06.2022</v>
+      <c r="B360" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C360">
         <v>0.45</v>
@@ -6568,8 +6569,8 @@
       <c r="A361" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B361" t="str">
-        <v>14.06.2022</v>
+      <c r="B361" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C361">
         <v>0.8</v>
@@ -6585,8 +6586,8 @@
       <c r="A362" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B362" t="str">
-        <v>15.06.2022</v>
+      <c r="B362" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C362">
         <v>0.6</v>
@@ -6602,8 +6603,8 @@
       <c r="A363" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B363" t="str">
-        <v>15.06.2022</v>
+      <c r="B363" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C363">
         <v>0.8</v>
@@ -6619,8 +6620,8 @@
       <c r="A364" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B364" t="str">
-        <v>15.06.2022</v>
+      <c r="B364" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -6636,8 +6637,8 @@
       <c r="A365" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B365" t="str">
-        <v>15.06.2022</v>
+      <c r="B365" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C365">
         <v>0.35</v>
@@ -6653,8 +6654,8 @@
       <c r="A366" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B366" t="str">
-        <v>15.06.2022</v>
+      <c r="B366" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C366">
         <v>0.5</v>
@@ -6670,8 +6671,8 @@
       <c r="A367" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B367" t="str">
-        <v>15.06.2022</v>
+      <c r="B367" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C367">
         <v>0.45</v>
@@ -6687,8 +6688,8 @@
       <c r="A368" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B368" t="str">
-        <v>15.06.2022</v>
+      <c r="B368" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C368">
         <v>0.5</v>
@@ -6704,8 +6705,8 @@
       <c r="A369" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B369" t="str">
-        <v>15.06.2022</v>
+      <c r="B369" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C369">
         <v>0.75</v>
@@ -6721,8 +6722,8 @@
       <c r="A370" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B370" t="str">
-        <v>16.06.2022</v>
+      <c r="B370" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C370">
         <v>0.5</v>
@@ -6738,8 +6739,8 @@
       <c r="A371" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B371" t="str">
-        <v>16.06.2022</v>
+      <c r="B371" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C371">
         <v>0.35</v>
@@ -6755,8 +6756,8 @@
       <c r="A372" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B372" t="str">
-        <v>16.06.2022</v>
+      <c r="B372" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -6772,8 +6773,8 @@
       <c r="A373" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B373" t="str">
-        <v>16.06.2022</v>
+      <c r="B373" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -6789,8 +6790,8 @@
       <c r="A374" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B374" t="str">
-        <v>17.06.2022</v>
+      <c r="B374" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -6806,8 +6807,8 @@
       <c r="A375" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B375" t="str">
-        <v>17.06.2022</v>
+      <c r="B375" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C375">
         <v>1.8</v>
@@ -6823,8 +6824,8 @@
       <c r="A376" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B376" t="str">
-        <v>17.06.2022</v>
+      <c r="B376" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C376">
         <v>0.33</v>
@@ -6840,8 +6841,8 @@
       <c r="A377" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B377" t="str">
-        <v>06.06.2022</v>
+      <c r="B377" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C377">
         <v>0.9</v>
@@ -6857,8 +6858,8 @@
       <c r="A378" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B378" t="str">
-        <v>06.06.2022</v>
+      <c r="B378" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C378">
         <v>0.3</v>
@@ -6874,8 +6875,8 @@
       <c r="A379" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B379" t="str">
-        <v>06.06.2022</v>
+      <c r="B379" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C379">
         <v>2.75</v>
@@ -6891,8 +6892,8 @@
       <c r="A380" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B380" t="str">
-        <v>06.06.2022</v>
+      <c r="B380" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C380">
         <v>0.15</v>
@@ -6908,8 +6909,8 @@
       <c r="A381" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B381" t="str">
-        <v>06.06.2022</v>
+      <c r="B381" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C381">
         <v>1.5</v>
@@ -6925,8 +6926,8 @@
       <c r="A382" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B382" t="str">
-        <v>07.06.2022</v>
+      <c r="B382" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C382">
         <v>0.25</v>
@@ -6942,8 +6943,8 @@
       <c r="A383" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B383" t="str">
-        <v>07.06.2022</v>
+      <c r="B383" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C383">
         <v>0.5</v>
@@ -6959,8 +6960,8 @@
       <c r="A384" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B384" t="str">
-        <v>07.06.2022</v>
+      <c r="B384" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C384">
         <v>0.5</v>
@@ -6976,8 +6977,8 @@
       <c r="A385" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B385" t="str">
-        <v>07.06.2022</v>
+      <c r="B385" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -6993,8 +6994,8 @@
       <c r="A386" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B386" t="str">
-        <v>07.06.2022</v>
+      <c r="B386" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C386">
         <v>0.25</v>
@@ -7010,8 +7011,8 @@
       <c r="A387" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B387" t="str">
-        <v>08.06.2022</v>
+      <c r="B387" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C387">
         <v>1.6</v>
@@ -7027,8 +7028,8 @@
       <c r="A388" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B388" t="str">
-        <v>08.06.2022</v>
+      <c r="B388" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C388">
         <v>0.4</v>
@@ -7044,8 +7045,8 @@
       <c r="A389" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B389" t="str">
-        <v>08.06.2022</v>
+      <c r="B389" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C389">
         <v>0.9</v>
@@ -7061,8 +7062,8 @@
       <c r="A390" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B390" t="str">
-        <v>08.06.2022</v>
+      <c r="B390" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C390">
         <v>0.5</v>
@@ -7078,8 +7079,8 @@
       <c r="A391" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B391" t="str">
-        <v>09.06.2022</v>
+      <c r="B391" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C391">
         <v>0.75</v>
@@ -7095,8 +7096,8 @@
       <c r="A392" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B392" t="str">
-        <v>09.06.2022</v>
+      <c r="B392" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C392">
         <v>0.45</v>
@@ -7112,8 +7113,8 @@
       <c r="A393" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B393" t="str">
-        <v>09.06.2022</v>
+      <c r="B393" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C393">
         <v>0.5</v>
@@ -7129,8 +7130,8 @@
       <c r="A394" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B394" t="str">
-        <v>09.06.2022</v>
+      <c r="B394" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C394">
         <v>0.85</v>
@@ -7146,8 +7147,8 @@
       <c r="A395" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B395" t="str">
-        <v>09.06.2022</v>
+      <c r="B395" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -7163,8 +7164,8 @@
       <c r="A396" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B396" t="str">
-        <v>10.06.2022</v>
+      <c r="B396" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -7180,8 +7181,8 @@
       <c r="A397" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B397" t="str">
-        <v>10.06.2022</v>
+      <c r="B397" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C397">
         <v>2</v>
@@ -7197,8 +7198,8 @@
       <c r="A398" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B398" t="str">
-        <v>10.06.2022</v>
+      <c r="B398" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -7214,8 +7215,8 @@
       <c r="A399" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B399" t="str">
-        <v>10.06.2022</v>
+      <c r="B399" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C399">
         <v>0.33</v>
@@ -7231,8 +7232,8 @@
       <c r="A400" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B400" t="str">
-        <v>10.06.2022</v>
+      <c r="B400" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C400">
         <v>2.15</v>
@@ -7248,8 +7249,8 @@
       <c r="A401" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B401" t="str">
-        <v>10.06.2022</v>
+      <c r="B401" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C401">
         <v>0.8</v>
@@ -7265,8 +7266,8 @@
       <c r="A402" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B402" t="str">
-        <v>10.06.2022</v>
+      <c r="B402" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C402">
         <v>0.5</v>
@@ -7282,8 +7283,8 @@
       <c r="A403" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B403" t="str">
-        <v>10.06.2022</v>
+      <c r="B403" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C403">
         <v>0.5</v>
@@ -7299,8 +7300,8 @@
       <c r="A404" t="str">
         <v>Eduards Valters Taurens</v>
       </c>
-      <c r="B404" t="str">
-        <v>11.06.2022</v>
+      <c r="B404" s="1">
+        <v>44724.0000462963</v>
       </c>
       <c r="C404">
         <v>0.5</v>
@@ -7316,8 +7317,8 @@
       <c r="A405" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B405" t="str">
-        <v>27.06.2022</v>
+      <c r="B405" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C405">
         <v>0.5</v>
@@ -7333,8 +7334,8 @@
       <c r="A406" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B406" t="str">
-        <v>27.06.2022</v>
+      <c r="B406" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -7350,8 +7351,8 @@
       <c r="A407" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B407" t="str">
-        <v>27.06.2022</v>
+      <c r="B407" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C407">
         <v>1.25</v>
@@ -7367,8 +7368,8 @@
       <c r="A408" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B408" t="str">
-        <v>27.06.2022</v>
+      <c r="B408" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C408">
         <v>2.5</v>
@@ -7384,8 +7385,8 @@
       <c r="A409" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B409" t="str">
-        <v>27.06.2022</v>
+      <c r="B409" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -7401,8 +7402,8 @@
       <c r="A410" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B410" t="str">
-        <v>28.06.2022</v>
+      <c r="B410" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -7418,8 +7419,8 @@
       <c r="A411" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B411" t="str">
-        <v>28.06.2022</v>
+      <c r="B411" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C411">
         <v>1.5</v>
@@ -7435,8 +7436,8 @@
       <c r="A412" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B412" t="str">
-        <v>28.06.2022</v>
+      <c r="B412" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -7452,8 +7453,8 @@
       <c r="A413" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B413" t="str">
-        <v>28.06.2022</v>
+      <c r="B413" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C413">
         <v>1.75</v>
@@ -7469,8 +7470,8 @@
       <c r="A414" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B414" t="str">
-        <v>28.06.2022</v>
+      <c r="B414" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C414">
         <v>1.25</v>
@@ -7486,8 +7487,8 @@
       <c r="A415" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B415" t="str">
-        <v>29.06.2022</v>
+      <c r="B415" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C415">
         <v>2</v>
@@ -7503,8 +7504,8 @@
       <c r="A416" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B416" t="str">
-        <v>29.06.2022</v>
+      <c r="B416" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -7520,8 +7521,8 @@
       <c r="A417" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B417" t="str">
-        <v>29.06.2022</v>
+      <c r="B417" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C417">
         <v>0.75</v>
@@ -7537,8 +7538,8 @@
       <c r="A418" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B418" t="str">
-        <v>29.06.2022</v>
+      <c r="B418" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -7554,8 +7555,8 @@
       <c r="A419" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B419" t="str">
-        <v>29.06.2022</v>
+      <c r="B419" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C419">
         <v>1.25</v>
@@ -7571,8 +7572,8 @@
       <c r="A420" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B420" t="str">
-        <v>30.06.2022</v>
+      <c r="B420" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C420">
         <v>0.75</v>
@@ -7588,8 +7589,8 @@
       <c r="A421" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B421" t="str">
-        <v>30.06.2022</v>
+      <c r="B421" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -7605,8 +7606,8 @@
       <c r="A422" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B422" t="str">
-        <v>30.06.2022</v>
+      <c r="B422" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C422">
         <v>1.75</v>
@@ -7622,8 +7623,8 @@
       <c r="A423" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B423" t="str">
-        <v>30.06.2022</v>
+      <c r="B423" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C423">
         <v>1.75</v>
@@ -7640,8 +7641,8 @@
       <c r="A424" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B424" t="str">
-        <v>30.06.2022</v>
+      <c r="B424" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C424">
         <v>1.75</v>
@@ -7657,8 +7658,8 @@
       <c r="A425" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B425" t="str">
-        <v>01.07.2022</v>
+      <c r="B425" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C425">
         <v>1.25</v>
@@ -7674,8 +7675,8 @@
       <c r="A426" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B426" t="str">
-        <v>01.07.2022</v>
+      <c r="B426" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C426">
         <v>1.25</v>
@@ -7691,8 +7692,8 @@
       <c r="A427" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B427" t="str">
-        <v>01.07.2022</v>
+      <c r="B427" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -7708,8 +7709,8 @@
       <c r="A428" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B428" t="str">
-        <v>01.07.2022</v>
+      <c r="B428" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -7725,8 +7726,8 @@
       <c r="A429" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B429" t="str">
-        <v>01.07.2022</v>
+      <c r="B429" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -7742,8 +7743,8 @@
       <c r="A430" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B430" t="str">
-        <v>01.07.2022</v>
+      <c r="B430" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -7759,8 +7760,8 @@
       <c r="A431" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B431" t="str">
-        <v>01.07.2022</v>
+      <c r="B431" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C431">
         <v>0.75</v>
@@ -7776,8 +7777,8 @@
       <c r="A432" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B432" t="str">
-        <v>27.06.2022</v>
+      <c r="B432" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C432">
         <v>3</v>
@@ -7793,8 +7794,8 @@
       <c r="A433" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B433" t="str">
-        <v>27.06.2022</v>
+      <c r="B433" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C433">
         <v>3</v>
@@ -7810,8 +7811,8 @@
       <c r="A434" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B434" t="str">
-        <v>27.06.2022</v>
+      <c r="B434" s="1">
+        <v>44740.0000462963</v>
       </c>
       <c r="C434">
         <v>2</v>
@@ -7827,8 +7828,8 @@
       <c r="A435" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B435" t="str">
-        <v>28.06.2022</v>
+      <c r="B435" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C435">
         <v>3</v>
@@ -7844,8 +7845,8 @@
       <c r="A436" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B436" t="str">
-        <v>28.06.2022</v>
+      <c r="B436" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C436">
         <v>3</v>
@@ -7861,8 +7862,8 @@
       <c r="A437" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B437" t="str">
-        <v>28.06.2022</v>
+      <c r="B437" s="1">
+        <v>44741.0000462963</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -7878,8 +7879,8 @@
       <c r="A438" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B438" t="str">
-        <v>29.06.2022</v>
+      <c r="B438" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C438">
         <v>3</v>
@@ -7895,8 +7896,8 @@
       <c r="A439" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B439" t="str">
-        <v>29.06.2022</v>
+      <c r="B439" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C439">
         <v>3</v>
@@ -7912,8 +7913,8 @@
       <c r="A440" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B440" t="str">
-        <v>29.06.2022</v>
+      <c r="B440" s="1">
+        <v>44742.0000462963</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -7929,8 +7930,8 @@
       <c r="A441" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B441" t="str">
-        <v>30.06.2022</v>
+      <c r="B441" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C441">
         <v>3</v>
@@ -7946,8 +7947,8 @@
       <c r="A442" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B442" t="str">
-        <v>30.06.2022</v>
+      <c r="B442" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -7963,8 +7964,8 @@
       <c r="A443" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B443" t="str">
-        <v>30.06.2022</v>
+      <c r="B443" s="1">
+        <v>44743.0000462963</v>
       </c>
       <c r="C443">
         <v>3</v>
@@ -7980,8 +7981,8 @@
       <c r="A444" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B444" t="str">
-        <v>01.07.2022</v>
+      <c r="B444" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C444">
         <v>3</v>
@@ -7997,8 +7998,8 @@
       <c r="A445" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B445" t="str">
-        <v>01.07.2022</v>
+      <c r="B445" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C445">
         <v>2.33</v>
@@ -8014,8 +8015,8 @@
       <c r="A446" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B446" t="str">
-        <v>01.07.2022</v>
+      <c r="B446" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C446">
         <v>0.67</v>
@@ -8031,8 +8032,8 @@
       <c r="A447" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B447" t="str">
-        <v>01.07.2022</v>
+      <c r="B447" s="1">
+        <v>44744.0000462963</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -8048,8 +8049,8 @@
       <c r="A448" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B448" t="str">
-        <v>20.06.2022</v>
+      <c r="B448" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C448">
         <v>0.17</v>
@@ -8065,8 +8066,8 @@
       <c r="A449" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B449" t="str">
-        <v>20.06.2022</v>
+      <c r="B449" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C449">
         <v>3</v>
@@ -8082,8 +8083,8 @@
       <c r="A450" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B450" t="str">
-        <v>20.06.2022</v>
+      <c r="B450" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C450">
         <v>3</v>
@@ -8099,8 +8100,8 @@
       <c r="A451" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B451" t="str">
-        <v>20.06.2022</v>
+      <c r="B451" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C451">
         <v>0.95</v>
@@ -8116,8 +8117,8 @@
       <c r="A452" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B452" t="str">
-        <v>21.06.2022</v>
+      <c r="B452" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C452">
         <v>0.33</v>
@@ -8133,8 +8134,8 @@
       <c r="A453" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B453" t="str">
-        <v>21.06.2022</v>
+      <c r="B453" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C453">
         <v>3</v>
@@ -8150,8 +8151,8 @@
       <c r="A454" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B454" t="str">
-        <v>21.06.2022</v>
+      <c r="B454" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C454">
         <v>3</v>
@@ -8167,8 +8168,8 @@
       <c r="A455" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B455" t="str">
-        <v>21.06.2022</v>
+      <c r="B455" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C455">
         <v>0.9</v>
@@ -8184,8 +8185,8 @@
       <c r="A456" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B456" t="str">
-        <v>22.06.2022</v>
+      <c r="B456" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C456">
         <v>3</v>
@@ -8201,8 +8202,8 @@
       <c r="A457" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B457" t="str">
-        <v>22.06.2022</v>
+      <c r="B457" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C457">
         <v>3</v>
@@ -8218,8 +8219,8 @@
       <c r="A458" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B458" t="str">
-        <v>22.06.2022</v>
+      <c r="B458" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -8235,8 +8236,8 @@
       <c r="A459" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B459" t="str">
-        <v>23.06.2022</v>
+      <c r="B459" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C459">
         <v>2</v>
@@ -8252,8 +8253,8 @@
       <c r="A460" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B460" t="str">
-        <v>23.06.2022</v>
+      <c r="B460" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C460">
         <v>2.5</v>
@@ -8269,8 +8270,8 @@
       <c r="A461" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B461" t="str">
-        <v>23.06.2022</v>
+      <c r="B461" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C461">
         <v>3</v>
@@ -8286,8 +8287,8 @@
       <c r="A462" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B462" t="str">
-        <v>24.06.2022</v>
+      <c r="B462" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C462">
         <v>2</v>
@@ -8303,8 +8304,8 @@
       <c r="A463" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B463" t="str">
-        <v>24.06.2022</v>
+      <c r="B463" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C463">
         <v>3</v>
@@ -8320,8 +8321,8 @@
       <c r="A464" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B464" t="str">
-        <v>24.06.2022</v>
+      <c r="B464" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C464">
         <v>0.7</v>
@@ -8337,8 +8338,8 @@
       <c r="A465" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B465" t="str">
-        <v>24.06.2022</v>
+      <c r="B465" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -8354,8 +8355,8 @@
       <c r="A466" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B466" t="str">
-        <v>24.06.2022</v>
+      <c r="B466" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C466">
         <v>0.5</v>
@@ -8371,8 +8372,8 @@
       <c r="A467" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B467" t="str">
-        <v>09.07.2022</v>
+      <c r="B467" s="1">
+        <v>44752.0000462963</v>
       </c>
       <c r="C467">
         <v>10</v>
@@ -8388,8 +8389,8 @@
       <c r="A468" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B468" t="str">
-        <v>17.06.2022</v>
+      <c r="B468" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C468">
         <v>3</v>
@@ -8405,8 +8406,8 @@
       <c r="A469" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B469" t="str">
-        <v>17.06.2022</v>
+      <c r="B469" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C469">
         <v>3</v>
@@ -8422,8 +8423,8 @@
       <c r="A470" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B470" t="str">
-        <v>16.06.2022</v>
+      <c r="B470" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C470">
         <v>0.5</v>
@@ -8439,8 +8440,8 @@
       <c r="A471" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B471" t="str">
-        <v>20.06.2022</v>
+      <c r="B471" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C471">
         <v>0.5</v>
@@ -8456,8 +8457,8 @@
       <c r="A472" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B472" t="str">
-        <v>20.06.2022</v>
+      <c r="B472" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C472">
         <v>1.25</v>
@@ -8473,8 +8474,8 @@
       <c r="A473" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B473" t="str">
-        <v>20.06.2022</v>
+      <c r="B473" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C473">
         <v>2.5</v>
@@ -8490,8 +8491,8 @@
       <c r="A474" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B474" t="str">
-        <v>20.06.2022</v>
+      <c r="B474" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C474">
         <v>1.5</v>
@@ -8507,8 +8508,8 @@
       <c r="A475" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B475" t="str">
-        <v>20.06.2022</v>
+      <c r="B475" s="1">
+        <v>44733.0000462963</v>
       </c>
       <c r="C475">
         <v>1.25</v>
@@ -8524,8 +8525,8 @@
       <c r="A476" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B476" t="str">
-        <v>21.06.2022</v>
+      <c r="B476" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C476">
         <v>1.25</v>
@@ -8541,8 +8542,8 @@
       <c r="A477" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B477" t="str">
-        <v>21.06.2022</v>
+      <c r="B477" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C477">
         <v>1.25</v>
@@ -8558,8 +8559,8 @@
       <c r="A478" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B478" t="str">
-        <v>21.06.2022</v>
+      <c r="B478" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -8575,8 +8576,8 @@
       <c r="A479" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B479" t="str">
-        <v>21.06.2022</v>
+      <c r="B479" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C479">
         <v>2</v>
@@ -8592,8 +8593,8 @@
       <c r="A480" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B480" t="str">
-        <v>21.06.2022</v>
+      <c r="B480" s="1">
+        <v>44734.0000462963</v>
       </c>
       <c r="C480">
         <v>1.75</v>
@@ -8609,8 +8610,8 @@
       <c r="A481" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B481" t="str">
-        <v>22.06.2022</v>
+      <c r="B481" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C481">
         <v>1.5</v>
@@ -8626,8 +8627,8 @@
       <c r="A482" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B482" t="str">
-        <v>22.06.2022</v>
+      <c r="B482" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C482">
         <v>1.5</v>
@@ -8643,8 +8644,8 @@
       <c r="A483" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B483" t="str">
-        <v>22.06.2022</v>
+      <c r="B483" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C483">
         <v>1.25</v>
@@ -8660,8 +8661,8 @@
       <c r="A484" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B484" t="str">
-        <v>22.06.2022</v>
+      <c r="B484" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C484">
         <v>1.25</v>
@@ -8677,8 +8678,8 @@
       <c r="A485" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B485" t="str">
-        <v>22.06.2022</v>
+      <c r="B485" s="1">
+        <v>44735.0000462963</v>
       </c>
       <c r="C485">
         <v>2</v>
@@ -8694,8 +8695,8 @@
       <c r="A486" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B486" t="str">
-        <v>23.06.2022</v>
+      <c r="B486" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C486">
         <v>1.25</v>
@@ -8711,8 +8712,8 @@
       <c r="A487" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B487" t="str">
-        <v>23.06.2022</v>
+      <c r="B487" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C487">
         <v>1.25</v>
@@ -8728,8 +8729,8 @@
       <c r="A488" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B488" t="str">
-        <v>23.06.2022</v>
+      <c r="B488" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -8745,8 +8746,8 @@
       <c r="A489" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B489" t="str">
-        <v>23.06.2022</v>
+      <c r="B489" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C489">
         <v>1.5</v>
@@ -8762,8 +8763,8 @@
       <c r="A490" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B490" t="str">
-        <v>23.06.2022</v>
+      <c r="B490" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C490">
         <v>0.75</v>
@@ -8779,8 +8780,8 @@
       <c r="A491" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B491" t="str">
-        <v>23.06.2022</v>
+      <c r="B491" s="1">
+        <v>44736.0000462963</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -8796,8 +8797,8 @@
       <c r="A492" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B492" t="str">
-        <v>24.06.2022</v>
+      <c r="B492" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C492">
         <v>1.25</v>
@@ -8813,8 +8814,8 @@
       <c r="A493" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B493" t="str">
-        <v>24.06.2022</v>
+      <c r="B493" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C493">
         <v>1.25</v>
@@ -8830,8 +8831,8 @@
       <c r="A494" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B494" t="str">
-        <v>24.06.2022</v>
+      <c r="B494" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C494">
         <v>1.5</v>
@@ -8847,8 +8848,8 @@
       <c r="A495" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B495" t="str">
-        <v>24.06.2022</v>
+      <c r="B495" s="1">
+        <v>44737.0000462963</v>
       </c>
       <c r="C495">
         <v>2.25</v>
@@ -8864,8 +8865,8 @@
       <c r="A496" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B496" t="str">
-        <v>15.06.2022</v>
+      <c r="B496" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C496">
         <v>10</v>
@@ -8881,8 +8882,8 @@
       <c r="A497" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B497" t="str">
-        <v>19.06.2022</v>
+      <c r="B497" s="1">
+        <v>44732.0000462963</v>
       </c>
       <c r="C497">
         <v>7</v>
@@ -8898,8 +8899,8 @@
       <c r="A498" t="str">
         <v>Margaryta Ievdokymova</v>
       </c>
-      <c r="B498" t="str">
-        <v>16.06.2022</v>
+      <c r="B498" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C498">
         <v>4</v>
@@ -8915,8 +8916,8 @@
       <c r="A499" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B499" t="str">
-        <v>13.06.2022</v>
+      <c r="B499" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C499">
         <v>0.5</v>
@@ -8932,8 +8933,8 @@
       <c r="A500" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B500" t="str">
-        <v>13.06.2022</v>
+      <c r="B500" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C500">
         <v>1.25</v>
@@ -8949,8 +8950,8 @@
       <c r="A501" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B501" t="str">
-        <v>13.06.2022</v>
+      <c r="B501" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C501">
         <v>2</v>
@@ -8966,8 +8967,8 @@
       <c r="A502" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B502" t="str">
-        <v>13.06.2022</v>
+      <c r="B502" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C502">
         <v>1.25</v>
@@ -8983,8 +8984,8 @@
       <c r="A503" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B503" t="str">
-        <v>13.06.2022</v>
+      <c r="B503" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C503">
         <v>1.5</v>
@@ -9000,8 +9001,8 @@
       <c r="A504" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B504" t="str">
-        <v>14.06.2022</v>
+      <c r="B504" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C504">
         <v>1.5</v>
@@ -9017,8 +9018,8 @@
       <c r="A505" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B505" t="str">
-        <v>14.06.2022</v>
+      <c r="B505" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C505">
         <v>2</v>
@@ -9034,8 +9035,8 @@
       <c r="A506" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B506" t="str">
-        <v>14.06.2022</v>
+      <c r="B506" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C506">
         <v>2.5</v>
@@ -9051,8 +9052,8 @@
       <c r="A507" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B507" t="str">
-        <v>14.06.2022</v>
+      <c r="B507" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C507">
         <v>1.25</v>
@@ -9068,8 +9069,8 @@
       <c r="A508" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B508" t="str">
-        <v>15.06.2022</v>
+      <c r="B508" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C508">
         <v>1.5</v>
@@ -9085,8 +9086,8 @@
       <c r="A509" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B509" t="str">
-        <v>15.06.2022</v>
+      <c r="B509" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C509">
         <v>2.5</v>
@@ -9102,8 +9103,8 @@
       <c r="A510" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B510" t="str">
-        <v>15.06.2022</v>
+      <c r="B510" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C510">
         <v>1.5</v>
@@ -9119,8 +9120,8 @@
       <c r="A511" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B511" t="str">
-        <v>15.06.2022</v>
+      <c r="B511" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C511">
         <v>1.5</v>
@@ -9136,8 +9137,8 @@
       <c r="A512" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B512" t="str">
-        <v>16.06.2022</v>
+      <c r="B512" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C512">
         <v>2</v>
@@ -9153,8 +9154,8 @@
       <c r="A513" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B513" t="str">
-        <v>16.06.2022</v>
+      <c r="B513" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C513">
         <v>2.5</v>
@@ -9170,8 +9171,8 @@
       <c r="A514" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B514" t="str">
-        <v>16.06.2022</v>
+      <c r="B514" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -9187,8 +9188,8 @@
       <c r="A515" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B515" t="str">
-        <v>17.06.2022</v>
+      <c r="B515" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -9204,8 +9205,8 @@
       <c r="A516" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B516" t="str">
-        <v>17.06.2022</v>
+      <c r="B516" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C516">
         <v>2.5</v>
@@ -9221,8 +9222,8 @@
       <c r="A517" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B517" t="str">
-        <v>17.06.2022</v>
+      <c r="B517" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -9238,8 +9239,8 @@
       <c r="A518" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B518" t="str">
-        <v>17.06.2022</v>
+      <c r="B518" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C518">
         <v>1.75</v>
@@ -9255,8 +9256,8 @@
       <c r="A519" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B519" t="str">
-        <v>13.06.2022</v>
+      <c r="B519" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C519">
         <v>3</v>
@@ -9272,8 +9273,8 @@
       <c r="A520" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B520" t="str">
-        <v>13.06.2022</v>
+      <c r="B520" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C520">
         <v>3</v>
@@ -9289,8 +9290,8 @@
       <c r="A521" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B521" t="str">
-        <v>13.06.2022</v>
+      <c r="B521" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C521">
         <v>0.83</v>
@@ -9306,8 +9307,8 @@
       <c r="A522" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B522" t="str">
-        <v>13.06.2022</v>
+      <c r="B522" s="1">
+        <v>44726.0000462963</v>
       </c>
       <c r="C522">
         <v>1.17</v>
@@ -9323,8 +9324,8 @@
       <c r="A523" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B523" t="str">
-        <v>14.06.2022</v>
+      <c r="B523" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C523">
         <v>0.5</v>
@@ -9340,8 +9341,8 @@
       <c r="A524" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B524" t="str">
-        <v>14.06.2022</v>
+      <c r="B524" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C524">
         <v>3</v>
@@ -9357,8 +9358,8 @@
       <c r="A525" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B525" t="str">
-        <v>14.06.2022</v>
+      <c r="B525" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C525">
         <v>2</v>
@@ -9374,8 +9375,8 @@
       <c r="A526" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B526" t="str">
-        <v>14.06.2022</v>
+      <c r="B526" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -9391,8 +9392,8 @@
       <c r="A527" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B527" t="str">
-        <v>14.06.2022</v>
+      <c r="B527" s="1">
+        <v>44727.0000462963</v>
       </c>
       <c r="C527">
         <v>0.75</v>
@@ -9408,8 +9409,8 @@
       <c r="A528" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B528" t="str">
-        <v>15.06.2022</v>
+      <c r="B528" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C528">
         <v>3</v>
@@ -9425,8 +9426,8 @@
       <c r="A529" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B529" t="str">
-        <v>15.06.2022</v>
+      <c r="B529" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -9442,8 +9443,8 @@
       <c r="A530" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B530" t="str">
-        <v>15.06.2022</v>
+      <c r="B530" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C530">
         <v>2.5</v>
@@ -9459,8 +9460,8 @@
       <c r="A531" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B531" t="str">
-        <v>15.06.2022</v>
+      <c r="B531" s="1">
+        <v>44728.0000462963</v>
       </c>
       <c r="C531">
         <v>0.85</v>
@@ -9476,8 +9477,8 @@
       <c r="A532" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B532" t="str">
-        <v>16.06.2022</v>
+      <c r="B532" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C532">
         <v>2.5</v>
@@ -9493,8 +9494,8 @@
       <c r="A533" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B533" t="str">
-        <v>16.06.2022</v>
+      <c r="B533" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C533">
         <v>3</v>
@@ -9510,8 +9511,8 @@
       <c r="A534" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B534" t="str">
-        <v>16.06.2022</v>
+      <c r="B534" s="1">
+        <v>44729.0000462963</v>
       </c>
       <c r="C534">
         <v>2</v>
@@ -9527,8 +9528,8 @@
       <c r="A535" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B535" t="str">
-        <v>17.06.2022</v>
+      <c r="B535" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C535">
         <v>3</v>
@@ -9544,8 +9545,8 @@
       <c r="A536" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B536" t="str">
-        <v>17.06.2022</v>
+      <c r="B536" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C536">
         <v>0.67</v>
@@ -9561,8 +9562,8 @@
       <c r="A537" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B537" t="str">
-        <v>17.06.2022</v>
+      <c r="B537" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C537">
         <v>2.5</v>
@@ -9578,8 +9579,8 @@
       <c r="A538" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B538" t="str">
-        <v>17.06.2022</v>
+      <c r="B538" s="1">
+        <v>44730.0000462963</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -9595,8 +9596,8 @@
       <c r="A539" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B539" t="str">
-        <v>06.06.2022</v>
+      <c r="B539" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -9612,8 +9613,8 @@
       <c r="A540" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B540" t="str">
-        <v>06.06.2022</v>
+      <c r="B540" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C540">
         <v>3</v>
@@ -9629,8 +9630,8 @@
       <c r="A541" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B541" t="str">
-        <v>06.06.2022</v>
+      <c r="B541" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C541">
         <v>3</v>
@@ -9646,8 +9647,8 @@
       <c r="A542" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B542" t="str">
-        <v>07.06.2022</v>
+      <c r="B542" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C542">
         <v>1.5</v>
@@ -9663,8 +9664,8 @@
       <c r="A543" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B543" t="str">
-        <v>07.06.2022</v>
+      <c r="B543" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C543">
         <v>0.33</v>
@@ -9680,8 +9681,8 @@
       <c r="A544" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B544" t="str">
-        <v>07.06.2022</v>
+      <c r="B544" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -9697,8 +9698,8 @@
       <c r="A545" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B545" t="str">
-        <v>07.06.2022</v>
+      <c r="B545" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C545">
         <v>3</v>
@@ -9714,8 +9715,8 @@
       <c r="A546" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B546" t="str">
-        <v>07.06.2022</v>
+      <c r="B546" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C546">
         <v>2</v>
@@ -9731,8 +9732,8 @@
       <c r="A547" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B547" t="str">
-        <v>08.06.2022</v>
+      <c r="B547" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C547">
         <v>1.5</v>
@@ -9748,8 +9749,8 @@
       <c r="A548" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B548" t="str">
-        <v>08.06.2022</v>
+      <c r="B548" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C548">
         <v>3</v>
@@ -9765,8 +9766,8 @@
       <c r="A549" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B549" t="str">
-        <v>08.06.2022</v>
+      <c r="B549" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C549">
         <v>1.5</v>
@@ -9782,8 +9783,8 @@
       <c r="A550" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B550" t="str">
-        <v>08.06.2022</v>
+      <c r="B550" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -9799,8 +9800,8 @@
       <c r="A551" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B551" t="str">
-        <v>09.06.2022</v>
+      <c r="B551" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C551">
         <v>1.25</v>
@@ -9816,8 +9817,8 @@
       <c r="A552" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B552" t="str">
-        <v>09.06.2022</v>
+      <c r="B552" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C552">
         <v>2.5</v>
@@ -9833,8 +9834,8 @@
       <c r="A553" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B553" t="str">
-        <v>09.06.2022</v>
+      <c r="B553" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C553">
         <v>1</v>
@@ -9850,8 +9851,8 @@
       <c r="A554" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B554" t="str">
-        <v>09.06.2022</v>
+      <c r="B554" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C554">
         <v>2.5</v>
@@ -9867,8 +9868,8 @@
       <c r="A555" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B555" t="str">
-        <v>10.06.2022</v>
+      <c r="B555" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C555">
         <v>1</v>
@@ -9884,8 +9885,8 @@
       <c r="A556" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B556" t="str">
-        <v>10.06.2022</v>
+      <c r="B556" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C556">
         <v>3</v>
@@ -9901,8 +9902,8 @@
       <c r="A557" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B557" t="str">
-        <v>10.06.2022</v>
+      <c r="B557" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C557">
         <v>0.83</v>
@@ -9918,8 +9919,8 @@
       <c r="A558" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B558" t="str">
-        <v>10.06.2022</v>
+      <c r="B558" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C558">
         <v>2</v>
@@ -9935,8 +9936,8 @@
       <c r="A559" t="str">
         <v>Abdelrahman Kassem</v>
       </c>
-      <c r="B559" t="str">
-        <v>10.06.2022</v>
+      <c r="B559" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C559">
         <v>0.5</v>
@@ -9952,8 +9953,8 @@
       <c r="A560" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B560" t="str">
-        <v>06.06.2022</v>
+      <c r="B560" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C560">
         <v>0.75</v>
@@ -9969,8 +9970,8 @@
       <c r="A561" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B561" t="str">
-        <v>06.06.2022</v>
+      <c r="B561" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C561">
         <v>1.5</v>
@@ -9986,8 +9987,8 @@
       <c r="A562" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B562" t="str">
-        <v>06.06.2022</v>
+      <c r="B562" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -10003,8 +10004,8 @@
       <c r="A563" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B563" t="str">
-        <v>06.06.2022</v>
+      <c r="B563" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C563">
         <v>1.75</v>
@@ -10020,8 +10021,8 @@
       <c r="A564" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B564" t="str">
-        <v>06.06.2022</v>
+      <c r="B564" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C564">
         <v>2.25</v>
@@ -10037,8 +10038,8 @@
       <c r="A565" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B565" t="str">
-        <v>07.06.2022</v>
+      <c r="B565" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C565">
         <v>1.25</v>
@@ -10054,8 +10055,8 @@
       <c r="A566" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B566" t="str">
-        <v>07.06.2022</v>
+      <c r="B566" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C566">
         <v>1.25</v>
@@ -10071,8 +10072,8 @@
       <c r="A567" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B567" t="str">
-        <v>07.06.2022</v>
+      <c r="B567" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C567">
         <v>1</v>
@@ -10088,8 +10089,8 @@
       <c r="A568" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B568" t="str">
-        <v>07.06.2022</v>
+      <c r="B568" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C568">
         <v>1.5</v>
@@ -10105,8 +10106,8 @@
       <c r="A569" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B569" t="str">
-        <v>07.06.2022</v>
+      <c r="B569" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C569">
         <v>2</v>
@@ -10122,8 +10123,8 @@
       <c r="A570" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B570" t="str">
-        <v>08.06.2022</v>
+      <c r="B570" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C570">
         <v>2</v>
@@ -10139,8 +10140,8 @@
       <c r="A571" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B571" t="str">
-        <v>08.06.2022</v>
+      <c r="B571" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C571">
         <v>1</v>
@@ -10156,8 +10157,8 @@
       <c r="A572" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B572" t="str">
-        <v>08.06.2022</v>
+      <c r="B572" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C572">
         <v>2.25</v>
@@ -10173,8 +10174,8 @@
       <c r="A573" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B573" t="str">
-        <v>08.06.2022</v>
+      <c r="B573" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C573">
         <v>1.5</v>
@@ -10190,8 +10191,8 @@
       <c r="A574" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B574" t="str">
-        <v>09.06.2022</v>
+      <c r="B574" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C574">
         <v>1.5</v>
@@ -10207,8 +10208,8 @@
       <c r="A575" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B575" t="str">
-        <v>09.06.2022</v>
+      <c r="B575" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C575">
         <v>1.5</v>
@@ -10224,8 +10225,8 @@
       <c r="A576" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B576" t="str">
-        <v>09.06.2022</v>
+      <c r="B576" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C576">
         <v>1.25</v>
@@ -10241,8 +10242,8 @@
       <c r="A577" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B577" t="str">
-        <v>09.06.2022</v>
+      <c r="B577" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C577">
         <v>1.5</v>
@@ -10258,8 +10259,8 @@
       <c r="A578" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B578" t="str">
-        <v>09.06.2022</v>
+      <c r="B578" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C578">
         <v>2</v>
@@ -10275,8 +10276,8 @@
       <c r="A579" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B579" t="str">
-        <v>10.06.2022</v>
+      <c r="B579" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -10292,8 +10293,8 @@
       <c r="A580" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B580" t="str">
-        <v>10.06.2022</v>
+      <c r="B580" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -10309,8 +10310,8 @@
       <c r="A581" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B581" t="str">
-        <v>10.06.2022</v>
+      <c r="B581" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -10326,8 +10327,8 @@
       <c r="A582" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B582" t="str">
-        <v>10.06.2022</v>
+      <c r="B582" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -10343,8 +10344,8 @@
       <c r="A583" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B583" t="str">
-        <v>10.06.2022</v>
+      <c r="B583" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C583">
         <v>0.75</v>
@@ -10360,8 +10361,8 @@
       <c r="A584" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B584" t="str">
-        <v>10.06.2022</v>
+      <c r="B584" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -10377,8 +10378,8 @@
       <c r="A585" t="str">
         <v>Usamah Muhammed Aqeel</v>
       </c>
-      <c r="B585" t="str">
-        <v>10.06.2022</v>
+      <c r="B585" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C585">
         <v>1.75</v>
@@ -10394,8 +10395,8 @@
       <c r="A586" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B586" t="str">
-        <v>06.06.2022</v>
+      <c r="B586" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C586">
         <v>2</v>
@@ -10411,8 +10412,8 @@
       <c r="A587" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B587" t="str">
-        <v>06.06.2022</v>
+      <c r="B587" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C587">
         <v>0.75</v>
@@ -10428,8 +10429,8 @@
       <c r="A588" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B588" t="str">
-        <v>06.06.2022</v>
+      <c r="B588" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -10445,8 +10446,8 @@
       <c r="A589" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B589" t="str">
-        <v>06.06.2022</v>
+      <c r="B589" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -10462,8 +10463,8 @@
       <c r="A590" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B590" t="str">
-        <v>06.06.2022</v>
+      <c r="B590" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C590">
         <v>0.3</v>
@@ -10479,8 +10480,8 @@
       <c r="A591" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B591" t="str">
-        <v>06.06.2022</v>
+      <c r="B591" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C591">
         <v>0.35</v>
@@ -10496,8 +10497,8 @@
       <c r="A592" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B592" t="str">
-        <v>06.06.2022</v>
+      <c r="B592" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C592">
         <v>0.11</v>
@@ -10513,8 +10514,8 @@
       <c r="A593" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B593" t="str">
-        <v>06.06.2022</v>
+      <c r="B593" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C593">
         <v>0.1</v>
@@ -10530,8 +10531,8 @@
       <c r="A594" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B594" t="str">
-        <v>06.06.2022</v>
+      <c r="B594" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C594">
         <v>1</v>
@@ -10547,8 +10548,8 @@
       <c r="A595" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B595" t="str">
-        <v>06.06.2022</v>
+      <c r="B595" s="1">
+        <v>44719.0000462963</v>
       </c>
       <c r="C595">
         <v>1.31</v>
@@ -10564,8 +10565,8 @@
       <c r="A596" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B596" t="str">
-        <v>07.06.2022</v>
+      <c r="B596" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C596">
         <v>1.75</v>
@@ -10581,8 +10582,8 @@
       <c r="A597" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B597" t="str">
-        <v>07.06.2022</v>
+      <c r="B597" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C597">
         <v>0.75</v>
@@ -10598,8 +10599,8 @@
       <c r="A598" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B598" t="str">
-        <v>07.06.2022</v>
+      <c r="B598" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C598">
         <v>0.7</v>
@@ -10615,8 +10616,8 @@
       <c r="A599" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B599" t="str">
-        <v>07.06.2022</v>
+      <c r="B599" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C599">
         <v>0.75</v>
@@ -10632,8 +10633,8 @@
       <c r="A600" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B600" t="str">
-        <v>07.06.2022</v>
+      <c r="B600" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C600">
         <v>0.7</v>
@@ -10649,8 +10650,8 @@
       <c r="A601" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B601" t="str">
-        <v>07.06.2022</v>
+      <c r="B601" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C601">
         <v>0.7</v>
@@ -10666,8 +10667,8 @@
       <c r="A602" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B602" t="str">
-        <v>07.06.2022</v>
+      <c r="B602" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C602">
         <v>1</v>
@@ -10683,8 +10684,8 @@
       <c r="A603" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B603" t="str">
-        <v>07.06.2022</v>
+      <c r="B603" s="1">
+        <v>44720.0000462963</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -10700,8 +10701,8 @@
       <c r="A604" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B604" t="str">
-        <v>08.06.2022</v>
+      <c r="B604" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C604">
         <v>3</v>
@@ -10717,8 +10718,8 @@
       <c r="A605" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B605" t="str">
-        <v>08.06.2022</v>
+      <c r="B605" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C605">
         <v>3</v>
@@ -10734,8 +10735,8 @@
       <c r="A606" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B606" t="str">
-        <v>08.06.2022</v>
+      <c r="B606" s="1">
+        <v>44721.0000462963</v>
       </c>
       <c r="C606">
         <v>2</v>
@@ -10751,8 +10752,8 @@
       <c r="A607" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B607" t="str">
-        <v>09.06.2022</v>
+      <c r="B607" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C607">
         <v>3</v>
@@ -10768,8 +10769,8 @@
       <c r="A608" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B608" t="str">
-        <v>09.06.2022</v>
+      <c r="B608" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C608">
         <v>3</v>
@@ -10785,8 +10786,8 @@
       <c r="A609" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B609" t="str">
-        <v>09.06.2022</v>
+      <c r="B609" s="1">
+        <v>44722.0000462963</v>
       </c>
       <c r="C609">
         <v>2</v>
@@ -10802,8 +10803,8 @@
       <c r="A610" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B610" t="str">
-        <v>10.06.2022</v>
+      <c r="B610" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C610">
         <v>2</v>
@@ -10819,8 +10820,8 @@
       <c r="A611" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B611" t="str">
-        <v>10.06.2022</v>
+      <c r="B611" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C611">
         <v>2</v>
@@ -10836,8 +10837,8 @@
       <c r="A612" t="str">
         <v>Zishan Vaseem</v>
       </c>
-      <c r="B612" t="str">
-        <v>10.06.2022</v>
+      <c r="B612" s="1">
+        <v>44723.0000462963</v>
       </c>
       <c r="C612">
         <v>2</v>
